--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B8F142-C492-43E4-821D-A47C3440561D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F481F4-5A1E-484C-BF63-C356DAF4C0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="12585" windowHeight="22845" firstSheet="1" activeTab="1" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
+    <workbookView xWindow="17250" yWindow="1650" windowWidth="26205" windowHeight="22845" firstSheet="1" activeTab="1" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -236,9 +236,6 @@
     <t>Прочие губернии Нечерноземной полосы</t>
   </si>
   <si>
-    <t>Итого по Нечерноземеой полосе</t>
-  </si>
-  <si>
     <t>Прочие губернии и области</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
   <si>
     <t>Вологодская</t>
   </si>
+  <si>
+    <t>Итого по Нечерноземной полосе</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +359,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,6 +405,7 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC811C8B-FE4B-4EB6-9464-61CFB76853BF}">
   <dimension ref="A1:J991"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
+      <selection activeCell="J864" sqref="J864"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="5">
-        <v>36454</v>
+        <v>36054</v>
       </c>
       <c r="D91" s="5">
         <v>8939</v>
@@ -2017,7 +2024,7 @@
       </c>
       <c r="I91" s="6">
         <f t="shared" ref="I91" si="20">C91-F91</f>
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="J91" s="6">
         <f t="shared" ref="J91" si="21">D91-G91</f>
@@ -4817,7 +4824,7 @@
         <v>3095</v>
       </c>
       <c r="D290" s="5">
-        <v>1.083</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -4967,7 +4974,7 @@
       </c>
       <c r="G301" s="6">
         <f t="shared" si="77"/>
-        <v>5451.0830000000005</v>
+        <v>6533</v>
       </c>
       <c r="I301" s="6">
         <f t="shared" ref="I301" si="78">C301-F301</f>
@@ -4975,7 +4982,7 @@
       </c>
       <c r="J301" s="6">
         <f t="shared" ref="J301" si="79">D301-G301</f>
-        <v>1081.9169999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -5170,7 +5177,7 @@
         <v>14531</v>
       </c>
       <c r="D316" s="5">
-        <v>4.6100000000000003</v>
+        <v>4610</v>
       </c>
       <c r="F316" s="6">
         <f t="shared" ref="F316:G316" si="81">SUM(C302:C315)</f>
@@ -5186,7 +5193,7 @@
       </c>
       <c r="J316" s="6">
         <f t="shared" ref="J316" si="83">D316-G316</f>
-        <v>-4605.3900000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -6616,7 +6623,7 @@
         <v>12770</v>
       </c>
       <c r="D421" s="5">
-        <v>3.5880000000000001</v>
+        <v>3588</v>
       </c>
       <c r="F421" s="6">
         <f t="shared" ref="F421:G421" si="111">SUM(C407:C420)</f>
@@ -6632,7 +6639,7 @@
       </c>
       <c r="J421" s="6">
         <f t="shared" ref="J421" si="113">D421-G421</f>
-        <v>-3584.4119999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
@@ -6827,7 +6834,7 @@
         <v>9633</v>
       </c>
       <c r="D436" s="5">
-        <v>2.2570000000000001</v>
+        <v>2257</v>
       </c>
       <c r="F436" s="6">
         <f t="shared" ref="F436:G436" si="115">SUM(C422:C435)</f>
@@ -6843,7 +6850,7 @@
       </c>
       <c r="J436" s="6">
         <f t="shared" ref="J436" si="117">D436-G436</f>
-        <v>-2254.7429999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
@@ -6854,7 +6861,7 @@
         <v>1896</v>
       </c>
       <c r="C437" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D437" s="5">
         <v>1</v>
@@ -7040,7 +7047,7 @@
       </c>
       <c r="F451" s="6">
         <f t="shared" ref="F451:G451" si="119">SUM(C437:C450)</f>
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="G451" s="6">
         <f t="shared" si="119"/>
@@ -7048,7 +7055,7 @@
       </c>
       <c r="I451" s="6">
         <f t="shared" ref="I451" si="120">C451-F451</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J451" s="6">
         <f t="shared" ref="J451" si="121">D451-G451</f>
@@ -7187,7 +7194,7 @@
         <v>1907</v>
       </c>
       <c r="C463" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D463" s="5">
         <v>2</v>
@@ -7232,7 +7239,7 @@
       </c>
       <c r="F466" s="6">
         <f t="shared" ref="F466:G466" si="124">SUM(C452:C465)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G466" s="6">
         <f t="shared" si="124"/>
@@ -7240,7 +7247,7 @@
       </c>
       <c r="I466" s="6">
         <f t="shared" ref="I466" si="125">C466-F466</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J466" s="6">
         <f t="shared" ref="J466" si="126">D466-G466</f>
@@ -8099,7 +8106,7 @@
         <v>1909</v>
       </c>
       <c r="C540" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D540" s="5"/>
     </row>
@@ -8116,7 +8123,7 @@
       </c>
       <c r="F541" s="6">
         <f t="shared" ref="F541:G541" si="144">SUM(C527:C540)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G541" s="6">
         <f t="shared" si="144"/>
@@ -8124,7 +8131,7 @@
       </c>
       <c r="I541" s="6">
         <f t="shared" ref="I541" si="145">C541-F541</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J541" s="6">
         <f t="shared" ref="J541" si="146">D541-G541</f>
@@ -8523,7 +8530,7 @@
         <v>1898</v>
       </c>
       <c r="C574" s="5">
-        <v>115712</v>
+        <v>145742</v>
       </c>
       <c r="D574" s="5">
         <v>39655</v>
@@ -8575,7 +8582,7 @@
         <v>1902</v>
       </c>
       <c r="C578" s="5">
-        <v>71311</v>
+        <v>74341</v>
       </c>
       <c r="D578" s="5">
         <v>29266</v>
@@ -8588,7 +8595,7 @@
         <v>1903</v>
       </c>
       <c r="C579" s="5">
-        <v>72921</v>
+        <v>72924</v>
       </c>
       <c r="D579" s="5">
         <v>18747</v>
@@ -8627,7 +8634,7 @@
         <v>1906</v>
       </c>
       <c r="C582" s="5">
-        <v>165871</v>
+        <v>165874</v>
       </c>
       <c r="D582" s="5">
         <v>35610</v>
@@ -8640,7 +8647,7 @@
         <v>1907</v>
       </c>
       <c r="C583" s="5">
-        <v>399891</v>
+        <v>399894</v>
       </c>
       <c r="D583" s="5">
         <v>88440</v>
@@ -8666,7 +8673,7 @@
         <v>1909</v>
       </c>
       <c r="C585" s="5">
-        <v>595111</v>
+        <v>595444</v>
       </c>
       <c r="D585" s="5">
         <v>120029</v>
@@ -8685,7 +8692,7 @@
       </c>
       <c r="F586" s="6">
         <f t="shared" ref="F586:G586" si="156">SUM(C572:C585)</f>
-        <v>2722406</v>
+        <v>2755808</v>
       </c>
       <c r="G586" s="6">
         <f t="shared" si="156"/>
@@ -8693,7 +8700,7 @@
       </c>
       <c r="I586" s="6">
         <f t="shared" ref="I586" si="157">C586-F586</f>
-        <v>33402</v>
+        <v>0</v>
       </c>
       <c r="J586" s="6">
         <f t="shared" ref="J586" si="158">D586-G586</f>
@@ -12898,7 +12905,7 @@
     </row>
     <row r="887" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A887" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B887" s="1">
         <v>1896</v>
@@ -13084,8 +13091,8 @@
       <c r="B901" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C901" s="5">
-        <v>16609</v>
+      <c r="C901" s="7">
+        <v>16619</v>
       </c>
       <c r="D901" s="5">
         <v>2488</v>
@@ -13100,7 +13107,7 @@
       </c>
       <c r="I901" s="6">
         <f t="shared" ref="I901" si="245">C901-F901</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J901" s="6">
         <f t="shared" ref="J901" si="246">D901-G901</f>
@@ -13531,7 +13538,7 @@
     </row>
     <row r="932" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A932" s="4" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B932" s="1">
         <v>1896</v>
@@ -13576,7 +13583,7 @@
         <v>1899</v>
       </c>
       <c r="C935" s="5">
-        <v>48422</v>
+        <v>43422</v>
       </c>
       <c r="D935" s="5">
         <v>11605</v>
@@ -13631,7 +13638,7 @@
         <v>52495</v>
       </c>
       <c r="D939" s="5">
-        <v>11731</v>
+        <v>11734</v>
       </c>
     </row>
     <row r="940" spans="1:10" x14ac:dyDescent="0.25">
@@ -13644,7 +13651,7 @@
         <v>7041</v>
       </c>
       <c r="D940" s="5">
-        <v>900</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.25">
@@ -13657,7 +13664,7 @@
         <v>6888</v>
       </c>
       <c r="D941" s="5">
-        <v>1560</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="942" spans="1:10" x14ac:dyDescent="0.25">
@@ -13725,24 +13732,24 @@
       </c>
       <c r="F946" s="6">
         <f t="shared" ref="F946:G946" si="257">SUM(C932:C945)</f>
-        <v>873964</v>
+        <v>868964</v>
       </c>
       <c r="G946" s="6">
         <f t="shared" si="257"/>
-        <v>183499</v>
+        <v>184511</v>
       </c>
       <c r="I946" s="6">
         <f t="shared" ref="I946" si="258">C946-F946</f>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="J946" s="6">
         <f t="shared" ref="J946" si="259">D946-G946</f>
-        <v>1012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A947" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B947" s="1">
         <v>1896</v>
@@ -13949,7 +13956,7 @@
     </row>
     <row r="962" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A962" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B962" s="1">
         <v>1896</v>
@@ -14154,7 +14161,7 @@
     </row>
     <row r="977" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A977" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B977" s="1">
         <v>1896</v>
@@ -14172,7 +14179,7 @@
         <v>1897</v>
       </c>
       <c r="C978" s="5">
-        <v>80076</v>
+        <v>86676</v>
       </c>
       <c r="D978" s="5">
         <v>35990</v>
@@ -14256,7 +14263,7 @@
         <v>1904</v>
       </c>
       <c r="C985" s="5">
-        <v>40732</v>
+        <v>46732</v>
       </c>
       <c r="D985" s="5">
         <v>15597</v>
@@ -14280,7 +14287,7 @@
         <v>1906</v>
       </c>
       <c r="C987" s="5">
-        <v>210648</v>
+        <v>216648</v>
       </c>
       <c r="D987" s="5">
         <v>46262</v>
@@ -14316,7 +14323,7 @@
         <v>1909</v>
       </c>
       <c r="C990" s="5">
-        <v>707403</v>
+        <v>707463</v>
       </c>
       <c r="D990" s="5">
         <v>139907</v>
@@ -14327,14 +14334,14 @@
         <v>3</v>
       </c>
       <c r="C991" s="5">
-        <v>8629398</v>
+        <v>3629398</v>
       </c>
       <c r="D991" s="5">
         <v>875948</v>
       </c>
       <c r="F991" s="6">
         <f t="shared" ref="F991:G991" si="269">SUM(C977:C990)</f>
-        <v>3610738</v>
+        <v>3629398</v>
       </c>
       <c r="G991" s="6">
         <f t="shared" si="269"/>
@@ -14342,7 +14349,7 @@
       </c>
       <c r="I991" s="6">
         <f t="shared" ref="I991:J991" si="270">C991-F991</f>
-        <v>5018660</v>
+        <v>0</v>
       </c>
       <c r="J991" s="6">
         <f t="shared" si="270"/>
@@ -14359,7 +14366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F4400-A1AD-4F11-B80B-A9703EF1393A}">
   <dimension ref="A1:J481"/>
   <sheetViews>
-    <sheetView topLeftCell="A420" workbookViewId="0">
+    <sheetView topLeftCell="A236" workbookViewId="0">
       <selection activeCell="D472" sqref="D472"/>
     </sheetView>
   </sheetViews>
@@ -14384,7 +14391,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1">
         <v>1896</v>
@@ -14595,7 +14602,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="1">
         <v>1896</v>
@@ -14775,7 +14782,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1">
         <v>1896</v>
@@ -14986,7 +14993,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1">
         <v>1896</v>
@@ -15197,7 +15204,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="1">
         <v>1896</v>
@@ -15404,7 +15411,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>1896</v>
@@ -15575,7 +15582,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B92" s="1">
         <v>1896</v>
@@ -15748,7 +15755,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B107" s="1">
         <v>1896</v>
@@ -15929,7 +15936,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B122" s="1">
         <v>1896</v>
@@ -16140,7 +16147,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B137" s="1">
         <v>1896</v>
@@ -16351,7 +16358,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B152" s="1">
         <v>1896</v>
@@ -16562,7 +16569,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B167" s="1">
         <v>1896</v>
@@ -16773,7 +16780,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B182" s="1">
         <v>1896</v>
@@ -16944,7 +16951,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B197" s="1">
         <v>1896</v>
@@ -17155,7 +17162,7 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B212" s="1">
         <v>1896</v>
@@ -17366,7 +17373,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B227" s="1">
         <v>1896</v>
@@ -17577,7 +17584,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B242" s="1">
         <v>1896</v>
@@ -17788,7 +17795,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B257" s="1">
         <v>1896</v>
@@ -17999,7 +18006,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B272" s="1">
         <v>1896</v>
@@ -18204,7 +18211,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B287" s="1">
         <v>1896</v>
@@ -18415,7 +18422,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B302" s="1">
         <v>1896</v>
@@ -18626,7 +18633,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B317" s="1">
         <v>1896</v>
@@ -18817,7 +18824,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B332" s="1">
         <v>1896</v>
@@ -19028,7 +19035,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B347" s="1">
         <v>1896</v>
@@ -20022,7 +20029,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B422" s="1">
         <v>1896</v>
@@ -20233,7 +20240,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B437" s="1">
         <v>1896</v>
@@ -20414,7 +20421,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B452" s="1">
         <v>1896</v>
@@ -20611,7 +20618,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B467" s="1">
         <v>1896</v>

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F481F4-5A1E-484C-BF63-C356DAF4C0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AEE5FF-4F96-498A-A134-CF242210ABFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="1650" windowWidth="26205" windowHeight="22845" firstSheet="1" activeTab="1" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
+    <workbookView xWindow="6345" yWindow="825" windowWidth="26205" windowHeight="22845" firstSheet="1" activeTab="1" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC811C8B-FE4B-4EB6-9464-61CFB76853BF}">
   <dimension ref="A1:J991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A856" workbookViewId="0">
-      <selection activeCell="J864" sqref="J864"/>
+    <sheetView tabSelected="1" topLeftCell="A901" workbookViewId="0">
+      <selection activeCell="M927" sqref="M927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14366,13 +14366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F4400-A1AD-4F11-B80B-A9703EF1393A}">
   <dimension ref="A1:J481"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="D472" sqref="D472"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70EFD41-1FD9-4D8D-AFD8-16E8804B763E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2BD5FB9-EFF1-4A52-9247-F82821DD675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="91965" yWindow="120" windowWidth="22695" windowHeight="22200" activeTab="4" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="107">
   <si>
     <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1896 по 1909 г. (включительно)", сост. Н. Турчанинов, С.-Петербург, 1910</t>
   </si>
@@ -355,9 +355,6 @@
   </si>
   <si>
     <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1810 по 1914 г. (включительно)", сост. Н. Турчанинов и А. Домрачев, Петроград, 1916</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @@@</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -20871,9 +20868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761FB104-E352-4B39-BBB0-990CF0255017}">
   <dimension ref="A1:F545"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -21025,7 +21020,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:B75" si="0">B11+1</f>
+        <f t="shared" ref="B12:B15" si="0">B11+1</f>
         <v>1911</v>
       </c>
       <c r="C12" s="4">
@@ -21127,7 +21122,7 @@
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B83" si="1">B19+1</f>
+        <f t="shared" ref="B20:B23" si="1">B19+1</f>
         <v>1911</v>
       </c>
       <c r="C20" s="4">
@@ -21229,7 +21224,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B91" si="2">B27+1</f>
+        <f t="shared" ref="B28:B31" si="2">B27+1</f>
         <v>1911</v>
       </c>
       <c r="C28" s="4">
@@ -21331,7 +21326,7 @@
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
-        <f t="shared" ref="B36:B99" si="3">B35+1</f>
+        <f t="shared" ref="B36:B39" si="3">B35+1</f>
         <v>1911</v>
       </c>
       <c r="C36" s="4">
@@ -21433,7 +21428,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
-        <f t="shared" ref="B44:B107" si="4">B43+1</f>
+        <f t="shared" ref="B44:B47" si="4">B43+1</f>
         <v>1911</v>
       </c>
       <c r="C44" s="4">
@@ -21535,7 +21530,7 @@
     <row r="52" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:B115" si="5">B51+1</f>
+        <f t="shared" ref="B52:B55" si="5">B51+1</f>
         <v>1911</v>
       </c>
       <c r="C52" s="4">
@@ -21637,7 +21632,7 @@
     <row r="60" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:B123" si="6">B59+1</f>
+        <f t="shared" ref="B60:B63" si="6">B59+1</f>
         <v>1911</v>
       </c>
       <c r="C60" s="4">
@@ -21739,7 +21734,7 @@
     <row r="68" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B131" si="7">B67+1</f>
+        <f t="shared" ref="B68:B71" si="7">B67+1</f>
         <v>1911</v>
       </c>
       <c r="C68" s="4">
@@ -21819,11 +21814,11 @@
       <c r="B74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>105</v>
+      <c r="C74" s="4">
+        <v>199272</v>
+      </c>
+      <c r="D74" s="4">
+        <v>49107</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -21831,17 +21826,25 @@
       <c r="B75" s="1">
         <v>1910</v>
       </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="C75" s="4">
+        <v>13060</v>
+      </c>
+      <c r="D75" s="4">
+        <v>10794</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="1">
-        <f t="shared" ref="B76:B139" si="8">B75+1</f>
+        <f t="shared" ref="B76:B79" si="8">B75+1</f>
         <v>1911</v>
       </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="C76" s="4">
+        <v>6812</v>
+      </c>
+      <c r="D76" s="4">
+        <v>7838</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2"/>
@@ -21849,8 +21852,12 @@
         <f t="shared" si="8"/>
         <v>1912</v>
       </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="C77" s="4">
+        <v>109631</v>
+      </c>
+      <c r="D77" s="4">
+        <v>4985</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2"/>
@@ -21858,8 +21865,12 @@
         <f t="shared" si="8"/>
         <v>1913</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="C78" s="4">
+        <v>15774</v>
+      </c>
+      <c r="D78" s="4">
+        <v>5960</v>
+      </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2"/>
@@ -21867,24 +21878,36 @@
         <f t="shared" si="8"/>
         <v>1914</v>
       </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="C79" s="4">
+        <v>190321</v>
+      </c>
+      <c r="D79" s="4">
+        <v>5526</v>
+      </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="C80" s="4">
+        <v>65641</v>
+      </c>
+      <c r="D80" s="4">
+        <v>35103</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="C81" s="4">
+        <v>264913</v>
+      </c>
+      <c r="D81" s="4">
+        <v>84210</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="7" t="s">
@@ -21893,25 +21916,37 @@
       <c r="B82" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="C82" s="4">
+        <v>182045</v>
+      </c>
+      <c r="D82" s="4">
+        <v>35616</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2"/>
       <c r="B83" s="1">
         <v>1910</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="C83" s="4">
+        <v>22582</v>
+      </c>
+      <c r="D83" s="4">
+        <v>8351</v>
+      </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="1">
-        <f t="shared" ref="B84:B147" si="9">B83+1</f>
+        <f t="shared" ref="B84:B87" si="9">B83+1</f>
         <v>1911</v>
       </c>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="4">
+        <v>10351</v>
+      </c>
+      <c r="D84" s="4">
+        <v>7543</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2"/>
@@ -21919,8 +21954,12 @@
         <f t="shared" si="9"/>
         <v>1912</v>
       </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="4">
+        <v>5753</v>
+      </c>
+      <c r="D85" s="4">
+        <v>3624</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2"/>
@@ -21928,8 +21967,12 @@
         <f t="shared" si="9"/>
         <v>1913</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="C86" s="4">
+        <v>7806</v>
+      </c>
+      <c r="D86" s="4">
+        <v>3337</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2"/>
@@ -21937,24 +21980,36 @@
         <f t="shared" si="9"/>
         <v>1914</v>
       </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="C87" s="4">
+        <v>8278</v>
+      </c>
+      <c r="D87" s="4">
+        <v>2987</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="C88" s="4">
+        <v>54770</v>
+      </c>
+      <c r="D88" s="4">
+        <v>25842</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="C89" s="4">
+        <v>236815</v>
+      </c>
+      <c r="D89" s="4">
+        <v>61458</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="7" t="s">
@@ -21963,25 +22018,37 @@
       <c r="B90" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="C90" s="4">
+        <v>61304</v>
+      </c>
+      <c r="D90" s="4">
+        <v>15784</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2"/>
       <c r="B91" s="1">
         <v>1910</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="C91" s="4">
+        <v>15148</v>
+      </c>
+      <c r="D91" s="4">
+        <v>4758</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2"/>
       <c r="B92" s="1">
-        <f t="shared" ref="B92:B155" si="10">B91+1</f>
+        <f t="shared" ref="B92:B95" si="10">B91+1</f>
         <v>1911</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="C92" s="4">
+        <v>8209</v>
+      </c>
+      <c r="D92" s="4">
+        <v>5064</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2"/>
@@ -21989,8 +22056,12 @@
         <f t="shared" si="10"/>
         <v>1912</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="C93" s="4">
+        <v>3751</v>
+      </c>
+      <c r="D93" s="4">
+        <v>2136</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2"/>
@@ -21998,8 +22069,12 @@
         <f t="shared" si="10"/>
         <v>1913</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="4">
+        <v>5404</v>
+      </c>
+      <c r="D94" s="4">
+        <v>2337</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2"/>
@@ -22007,24 +22082,36 @@
         <f t="shared" si="10"/>
         <v>1914</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="C95" s="4">
+        <v>7048</v>
+      </c>
+      <c r="D95" s="4">
+        <v>2467</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="4">
+        <v>39560</v>
+      </c>
+      <c r="D96" s="4">
+        <v>16762</v>
+      </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="C97" s="4">
+        <v>100864</v>
+      </c>
+      <c r="D97" s="4">
+        <v>32546</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="7" t="s">
@@ -22055,7 +22142,7 @@
     <row r="100" spans="1:4">
       <c r="A100" s="2"/>
       <c r="B100" s="1">
-        <f t="shared" ref="B100:B163" si="11">B99+1</f>
+        <f t="shared" ref="B100:B103" si="11">B99+1</f>
         <v>1911</v>
       </c>
       <c r="C100" s="4">
@@ -22157,7 +22244,7 @@
     <row r="108" spans="1:4">
       <c r="A108" s="2"/>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:B171" si="12">B107+1</f>
+        <f t="shared" ref="B108:B111" si="12">B107+1</f>
         <v>1911</v>
       </c>
       <c r="C108" s="4">
@@ -22259,7 +22346,7 @@
     <row r="116" spans="1:4">
       <c r="A116" s="2"/>
       <c r="B116" s="1">
-        <f t="shared" ref="B116:B179" si="13">B115+1</f>
+        <f t="shared" ref="B116:B119" si="13">B115+1</f>
         <v>1911</v>
       </c>
       <c r="C116" s="4">
@@ -22339,11 +22426,11 @@
       <c r="B122" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>105</v>
+      <c r="C122" s="4">
+        <v>95326</v>
+      </c>
+      <c r="D122" s="4">
+        <v>25234</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -22351,17 +22438,25 @@
       <c r="B123" s="1">
         <v>1910</v>
       </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="C123" s="4">
+        <v>24387</v>
+      </c>
+      <c r="D123" s="4">
+        <v>7729</v>
+      </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2"/>
       <c r="B124" s="1">
-        <f t="shared" ref="B124:B187" si="14">B123+1</f>
+        <f t="shared" ref="B124:B127" si="14">B123+1</f>
         <v>1911</v>
       </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="C124" s="4">
+        <v>14681</v>
+      </c>
+      <c r="D124" s="4">
+        <v>11282</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2"/>
@@ -22369,8 +22464,12 @@
         <f t="shared" si="14"/>
         <v>1912</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="C125" s="4">
+        <v>9591</v>
+      </c>
+      <c r="D125" s="4">
+        <v>4464</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2"/>
@@ -22378,8 +22477,12 @@
         <f t="shared" si="14"/>
         <v>1913</v>
       </c>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="C126" s="4">
+        <v>25601</v>
+      </c>
+      <c r="D126" s="4">
+        <v>6292</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2"/>
@@ -22387,24 +22490,36 @@
         <f t="shared" si="14"/>
         <v>1914</v>
       </c>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="C127" s="4">
+        <v>25873</v>
+      </c>
+      <c r="D127" s="4">
+        <v>5258</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="C128" s="4">
+        <v>100133</v>
+      </c>
+      <c r="D128" s="4">
+        <v>35025</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="C129" s="4">
+        <v>195459</v>
+      </c>
+      <c r="D129" s="4">
+        <v>60259</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="7" t="s">
@@ -22413,25 +22528,37 @@
       <c r="B130" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="C130" s="4">
+        <v>87566</v>
+      </c>
+      <c r="D130" s="4">
+        <v>16715</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2"/>
       <c r="B131" s="1">
         <v>1910</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="C131" s="4">
+        <v>16293</v>
+      </c>
+      <c r="D131" s="4">
+        <v>4854</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2"/>
       <c r="B132" s="1">
-        <f t="shared" ref="B132:B195" si="15">B131+1</f>
+        <f t="shared" ref="B132:B135" si="15">B131+1</f>
         <v>1911</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="C132" s="4">
+        <v>7022</v>
+      </c>
+      <c r="D132" s="4">
+        <v>6302</v>
+      </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2"/>
@@ -22439,8 +22566,12 @@
         <f t="shared" si="15"/>
         <v>1912</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="C133" s="4">
+        <v>5461</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2969</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2"/>
@@ -22448,8 +22579,12 @@
         <f t="shared" si="15"/>
         <v>1913</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="C134" s="4">
+        <v>15066</v>
+      </c>
+      <c r="D134" s="4">
+        <v>3557</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2"/>
@@ -22457,24 +22592,36 @@
         <f t="shared" si="15"/>
         <v>1914</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="C135" s="4">
+        <v>16317</v>
+      </c>
+      <c r="D135" s="4">
+        <v>2407</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="C136" s="4">
+        <v>60159</v>
+      </c>
+      <c r="D136" s="4">
+        <v>20089</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="C137" s="4">
+        <v>147725</v>
+      </c>
+      <c r="D137" s="4">
+        <v>36804</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="7" t="s">
@@ -22483,25 +22630,37 @@
       <c r="B138" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="C138" s="4">
+        <v>42310</v>
+      </c>
+      <c r="D138" s="4">
+        <v>10125</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2"/>
       <c r="B139" s="1">
         <v>1910</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="C139" s="4">
+        <v>3375</v>
+      </c>
+      <c r="D139" s="4">
+        <v>1977</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2"/>
       <c r="B140" s="1">
-        <f t="shared" ref="B140:B203" si="16">B139+1</f>
+        <f t="shared" ref="B140:B143" si="16">B139+1</f>
         <v>1911</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="C140" s="4">
+        <v>2509</v>
+      </c>
+      <c r="D140" s="4">
+        <v>2751</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2"/>
@@ -22509,8 +22668,12 @@
         <f t="shared" si="16"/>
         <v>1912</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="C141" s="4">
+        <v>2493</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1549</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2"/>
@@ -22518,8 +22681,12 @@
         <f t="shared" si="16"/>
         <v>1913</v>
       </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="C142" s="4">
+        <v>7815</v>
+      </c>
+      <c r="D142" s="4">
+        <v>2244</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2"/>
@@ -22527,240 +22694,346 @@
         <f t="shared" si="16"/>
         <v>1914</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="C143" s="4">
+        <v>7582</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1800</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="C144" s="4">
+        <v>23774</v>
+      </c>
+      <c r="D144" s="4">
+        <v>10321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="C145" s="4">
+        <v>66084</v>
+      </c>
+      <c r="D145" s="4">
+        <v>20441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="C146" s="4">
+        <v>1633</v>
+      </c>
+      <c r="D146" s="4">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2"/>
       <c r="B147" s="1">
         <v>1910</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="C147" s="4">
+        <v>124</v>
+      </c>
+      <c r="D147" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2"/>
       <c r="B148" s="1">
-        <f t="shared" ref="B148:B211" si="17">B147+1</f>
+        <f t="shared" ref="B148:B151" si="17">B147+1</f>
         <v>1911</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="C148" s="4">
+        <v>152</v>
+      </c>
+      <c r="D148" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2"/>
       <c r="B149" s="1">
         <f t="shared" si="17"/>
         <v>1912</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="C149" s="4">
+        <v>826</v>
+      </c>
+      <c r="D149" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2"/>
       <c r="B150" s="1">
         <f t="shared" si="17"/>
         <v>1913</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="C150" s="4">
+        <v>184</v>
+      </c>
+      <c r="D150" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2"/>
       <c r="B151" s="1">
         <f t="shared" si="17"/>
         <v>1914</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="C151" s="4">
+        <v>43</v>
+      </c>
+      <c r="D151" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="C152" s="4">
+        <v>1329</v>
+      </c>
+      <c r="D152" s="4">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="C153" s="4">
+        <v>2962</v>
+      </c>
+      <c r="D153" s="4">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="C154" s="4">
+        <v>24236</v>
+      </c>
+      <c r="D154" s="4">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2"/>
       <c r="B155" s="1">
         <v>1910</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="C155" s="4">
+        <v>2579</v>
+      </c>
+      <c r="D155" s="4">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2"/>
       <c r="B156" s="1">
-        <f t="shared" ref="B156:B219" si="18">B155+1</f>
+        <f t="shared" ref="B156:B159" si="18">B155+1</f>
         <v>1911</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="C156" s="4">
+        <v>6301</v>
+      </c>
+      <c r="D156" s="4">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2"/>
       <c r="B157" s="1">
         <f t="shared" si="18"/>
         <v>1912</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="C157" s="4">
+        <v>11877</v>
+      </c>
+      <c r="D157" s="4">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2"/>
       <c r="B158" s="1">
         <f t="shared" si="18"/>
         <v>1913</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="C158" s="4">
+        <v>8853</v>
+      </c>
+      <c r="D158" s="4">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2"/>
       <c r="B159" s="1">
         <f t="shared" si="18"/>
         <v>1914</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="C159" s="4">
+        <v>5343</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="C160" s="4">
+        <v>34953</v>
+      </c>
+      <c r="D160" s="4">
+        <v>10671</v>
+      </c>
+      <c r="F160" s="4"/>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="C161" s="4">
+        <v>59189</v>
+      </c>
+      <c r="D161" s="4">
+        <v>17204</v>
+      </c>
+      <c r="F161" s="4"/>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="C162" s="4">
+        <v>14531</v>
+      </c>
+      <c r="D162" s="4">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2"/>
       <c r="B163" s="1">
         <v>1910</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="C163" s="4">
+        <v>458</v>
+      </c>
+      <c r="D163" s="4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2"/>
       <c r="B164" s="1">
-        <f t="shared" ref="B164:B227" si="19">B163+1</f>
+        <f t="shared" ref="B164:B167" si="19">B163+1</f>
         <v>1911</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="C164" s="4">
+        <v>861</v>
+      </c>
+      <c r="D164" s="4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2"/>
       <c r="B165" s="1">
         <f t="shared" si="19"/>
         <v>1912</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="C165" s="4">
+        <v>1536</v>
+      </c>
+      <c r="D165" s="4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2"/>
       <c r="B166" s="1">
         <f t="shared" si="19"/>
         <v>1913</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="C166" s="4">
+        <v>1364</v>
+      </c>
+      <c r="D166" s="4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2"/>
       <c r="B167" s="1">
         <f t="shared" si="19"/>
         <v>1914</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="C167" s="4">
+        <v>1059</v>
+      </c>
+      <c r="D167" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="C168" s="4">
+        <v>5278</v>
+      </c>
+      <c r="D168" s="4">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="C169" s="4">
+        <v>19809</v>
+      </c>
+      <c r="D169" s="4">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="7" t="s">
         <v>27</v>
       </c>
@@ -22774,7 +23047,7 @@
         <v>14499</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:6">
       <c r="A171" s="2"/>
       <c r="B171" s="1">
         <v>1910</v>
@@ -22786,10 +23059,10 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:6">
       <c r="A172" s="2"/>
       <c r="B172" s="1">
-        <f t="shared" ref="B172:B235" si="20">B171+1</f>
+        <f t="shared" ref="B172:B175" si="20">B171+1</f>
         <v>1911</v>
       </c>
       <c r="C172" s="4">
@@ -22799,7 +23072,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:6">
       <c r="A173" s="2"/>
       <c r="B173" s="1">
         <f t="shared" si="20"/>
@@ -22812,7 +23085,7 @@
         <v>4009</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:6">
       <c r="A174" s="2"/>
       <c r="B174" s="1">
         <f t="shared" si="20"/>
@@ -22825,7 +23098,7 @@
         <v>4361</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:6">
       <c r="A175" s="2"/>
       <c r="B175" s="1">
         <f t="shared" si="20"/>
@@ -22838,7 +23111,7 @@
         <v>3052</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:6">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>100</v>
@@ -22891,7 +23164,7 @@
     <row r="180" spans="1:4">
       <c r="A180" s="2"/>
       <c r="B180" s="1">
-        <f t="shared" ref="B180:B243" si="21">B179+1</f>
+        <f t="shared" ref="B180:B183" si="21">B179+1</f>
         <v>1911</v>
       </c>
       <c r="C180" s="4">
@@ -22993,7 +23266,7 @@
     <row r="188" spans="1:4">
       <c r="A188" s="2"/>
       <c r="B188" s="1">
-        <f t="shared" ref="B188:B251" si="22">B187+1</f>
+        <f t="shared" ref="B188:B191" si="22">B187+1</f>
         <v>1911</v>
       </c>
       <c r="C188" s="4">
@@ -23095,7 +23368,7 @@
     <row r="196" spans="1:4">
       <c r="A196" s="2"/>
       <c r="B196" s="1">
-        <f t="shared" ref="B196:B259" si="23">B195+1</f>
+        <f t="shared" ref="B196:B199" si="23">B195+1</f>
         <v>1911</v>
       </c>
       <c r="C196" s="4">
@@ -23197,7 +23470,7 @@
     <row r="204" spans="1:4">
       <c r="A204" s="2"/>
       <c r="B204" s="1">
-        <f t="shared" ref="B204:B267" si="24">B203+1</f>
+        <f t="shared" ref="B204:B207" si="24">B203+1</f>
         <v>1911</v>
       </c>
       <c r="C204" s="4">
@@ -23290,7 +23563,7 @@
         <v>1910</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D211" s="4">
         <v>1</v>
@@ -23299,7 +23572,7 @@
     <row r="212" spans="1:4">
       <c r="A212" s="2"/>
       <c r="B212" s="1">
-        <f t="shared" ref="B212:B275" si="25">B211+1</f>
+        <f t="shared" ref="B212:B215" si="25">B211+1</f>
         <v>1911</v>
       </c>
       <c r="C212" s="4">
@@ -23379,11 +23652,11 @@
       <c r="B218" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C218" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>105</v>
+      <c r="C218" s="4">
+        <v>12770</v>
+      </c>
+      <c r="D218" s="4">
+        <v>3588</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -23391,17 +23664,25 @@
       <c r="B219" s="1">
         <v>1910</v>
       </c>
-      <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="C219" s="4">
+        <v>5193</v>
+      </c>
+      <c r="D219" s="4">
+        <v>1518</v>
+      </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2"/>
       <c r="B220" s="1">
-        <f t="shared" ref="B220:B283" si="26">B219+1</f>
+        <f t="shared" ref="B220:B223" si="26">B219+1</f>
         <v>1911</v>
       </c>
-      <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="C220" s="4">
+        <v>3563</v>
+      </c>
+      <c r="D220" s="4">
+        <v>1600</v>
+      </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2"/>
@@ -23409,8 +23690,12 @@
         <f t="shared" si="26"/>
         <v>1912</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="C221" s="4">
+        <v>6881</v>
+      </c>
+      <c r="D221" s="4">
+        <v>1339</v>
+      </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2"/>
@@ -23418,8 +23703,12 @@
         <f t="shared" si="26"/>
         <v>1913</v>
       </c>
-      <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="C222" s="4">
+        <v>7881</v>
+      </c>
+      <c r="D222" s="4">
+        <v>1504</v>
+      </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2"/>
@@ -23427,24 +23716,36 @@
         <f t="shared" si="26"/>
         <v>1914</v>
       </c>
-      <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="C223" s="4">
+        <v>4523</v>
+      </c>
+      <c r="D223" s="4">
+        <v>1014</v>
+      </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="C224" s="4">
+        <v>28041</v>
+      </c>
+      <c r="D224" s="4">
+        <v>6975</v>
+      </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="C225" s="4">
+        <v>40811</v>
+      </c>
+      <c r="D225" s="4">
+        <v>10563</v>
+      </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="7" t="s">
@@ -23453,25 +23754,37 @@
       <c r="B226" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="C226" s="4">
+        <v>9633</v>
+      </c>
+      <c r="D226" s="4">
+        <v>2257</v>
+      </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2"/>
       <c r="B227" s="1">
         <v>1910</v>
       </c>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="C227" s="4">
+        <v>1203</v>
+      </c>
+      <c r="D227" s="4">
+        <v>568</v>
+      </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2"/>
       <c r="B228" s="1">
-        <f t="shared" ref="B228:B291" si="27">B227+1</f>
+        <f t="shared" ref="B228:B231" si="27">B227+1</f>
         <v>1911</v>
       </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="C228" s="4">
+        <v>587</v>
+      </c>
+      <c r="D228" s="4">
+        <v>601</v>
+      </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2"/>
@@ -23479,8 +23792,12 @@
         <f t="shared" si="27"/>
         <v>1912</v>
       </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="C229" s="4">
+        <v>815</v>
+      </c>
+      <c r="D229" s="4">
+        <v>279</v>
+      </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2"/>
@@ -23488,8 +23805,12 @@
         <f t="shared" si="27"/>
         <v>1913</v>
       </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="C230" s="4">
+        <v>1261</v>
+      </c>
+      <c r="D230" s="4">
+        <v>612</v>
+      </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2"/>
@@ -23497,24 +23818,36 @@
         <f t="shared" si="27"/>
         <v>1914</v>
       </c>
-      <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="C231" s="4">
+        <v>3316</v>
+      </c>
+      <c r="D231" s="4">
+        <v>935</v>
+      </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="C232" s="4">
+        <v>7182</v>
+      </c>
+      <c r="D232" s="4">
+        <v>2995</v>
+      </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="C233" s="4">
+        <v>16815</v>
+      </c>
+      <c r="D233" s="4">
+        <v>5252</v>
+      </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="7" t="s">
@@ -23523,25 +23856,37 @@
       <c r="B234" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="C234" s="4">
+        <v>1826</v>
+      </c>
+      <c r="D234" s="4">
+        <v>588</v>
+      </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2"/>
       <c r="B235" s="1">
         <v>1910</v>
       </c>
-      <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="C235" s="4">
+        <v>362</v>
+      </c>
+      <c r="D235" s="4">
+        <v>158</v>
+      </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2"/>
       <c r="B236" s="1">
-        <f t="shared" ref="B236:B299" si="28">B235+1</f>
+        <f t="shared" ref="B236:B239" si="28">B235+1</f>
         <v>1911</v>
       </c>
-      <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="C236" s="4">
+        <v>153</v>
+      </c>
+      <c r="D236" s="4">
+        <v>75</v>
+      </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2"/>
@@ -23549,8 +23894,12 @@
         <f t="shared" si="28"/>
         <v>1912</v>
       </c>
-      <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="C237" s="4">
+        <v>159</v>
+      </c>
+      <c r="D237" s="4">
+        <v>63</v>
+      </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2"/>
@@ -23558,8 +23907,12 @@
         <f t="shared" si="28"/>
         <v>1913</v>
       </c>
-      <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="C238" s="4">
+        <v>373</v>
+      </c>
+      <c r="D238" s="4">
+        <v>168</v>
+      </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2"/>
@@ -23567,24 +23920,36 @@
         <f t="shared" si="28"/>
         <v>1914</v>
       </c>
-      <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="C239" s="4">
+        <v>440</v>
+      </c>
+      <c r="D239" s="4">
+        <v>95</v>
+      </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2"/>
       <c r="B240" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="C240" s="4">
+        <v>1487</v>
+      </c>
+      <c r="D240" s="4">
+        <v>559</v>
+      </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="C241" s="4">
+        <v>3313</v>
+      </c>
+      <c r="D241" s="4">
+        <v>1147</v>
+      </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="7" t="s">
@@ -23615,7 +23980,7 @@
     <row r="244" spans="1:4">
       <c r="A244" s="2"/>
       <c r="B244" s="1">
-        <f t="shared" ref="B244:B307" si="29">B243+1</f>
+        <f t="shared" ref="B244:B247" si="29">B243+1</f>
         <v>1911</v>
       </c>
       <c r="C244" s="4"/>
@@ -23711,7 +24076,7 @@
     <row r="252" spans="1:4">
       <c r="A252" s="2"/>
       <c r="B252" s="1">
-        <f t="shared" ref="B252:B315" si="30">B251+1</f>
+        <f t="shared" ref="B252:B255" si="30">B251+1</f>
         <v>1911</v>
       </c>
       <c r="C252" s="4">
@@ -23809,7 +24174,7 @@
     <row r="260" spans="1:4">
       <c r="A260" s="2"/>
       <c r="B260" s="1">
-        <f t="shared" ref="B260:B323" si="31">B259+1</f>
+        <f t="shared" ref="B260:B263" si="31">B259+1</f>
         <v>1911</v>
       </c>
       <c r="C260" s="4">
@@ -23905,7 +24270,7 @@
     <row r="268" spans="1:4">
       <c r="A268" s="2"/>
       <c r="B268" s="1">
-        <f t="shared" ref="B268:B331" si="32">B267+1</f>
+        <f t="shared" ref="B268:B271" si="32">B267+1</f>
         <v>1911</v>
       </c>
       <c r="C268" s="4"/>
@@ -23990,7 +24355,7 @@
     <row r="276" spans="1:4">
       <c r="A276" s="2"/>
       <c r="B276" s="1">
-        <f t="shared" ref="B276:B339" si="33">B275+1</f>
+        <f t="shared" ref="B276:B279" si="33">B275+1</f>
         <v>1911</v>
       </c>
       <c r="C276" s="4">
@@ -24084,7 +24449,7 @@
     <row r="284" spans="1:4">
       <c r="A284" s="2"/>
       <c r="B284" s="1">
-        <f t="shared" ref="B284:B347" si="34">B283+1</f>
+        <f t="shared" ref="B284:B287" si="34">B283+1</f>
         <v>1911</v>
       </c>
       <c r="C284" s="4"/>
@@ -24170,7 +24535,7 @@
     <row r="292" spans="1:4">
       <c r="A292" s="2"/>
       <c r="B292" s="1">
-        <f t="shared" ref="B292:B355" si="35">B291+1</f>
+        <f t="shared" ref="B292:B295" si="35">B291+1</f>
         <v>1911</v>
       </c>
       <c r="C292" s="4"/>
@@ -24252,7 +24617,7 @@
     <row r="300" spans="1:4">
       <c r="A300" s="2"/>
       <c r="B300" s="1">
-        <f t="shared" ref="B300:B363" si="36">B299+1</f>
+        <f t="shared" ref="B300:B303" si="36">B299+1</f>
         <v>1911</v>
       </c>
       <c r="C300" s="4">
@@ -24354,7 +24719,7 @@
     <row r="308" spans="1:4">
       <c r="A308" s="2"/>
       <c r="B308" s="1">
-        <f t="shared" ref="B308:B371" si="37">B307+1</f>
+        <f t="shared" ref="B308:B311" si="37">B307+1</f>
         <v>1911</v>
       </c>
       <c r="D308" s="4">
@@ -24381,7 +24746,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -24447,7 +24812,7 @@
     <row r="316" spans="1:4">
       <c r="A316" s="2"/>
       <c r="B316" s="1">
-        <f t="shared" ref="B316:B379" si="38">B315+1</f>
+        <f t="shared" ref="B316:B319" si="38">B315+1</f>
         <v>1911</v>
       </c>
       <c r="C316" s="4">
@@ -24549,7 +24914,7 @@
     <row r="324" spans="1:4">
       <c r="A324" s="2"/>
       <c r="B324" s="1">
-        <f t="shared" ref="B324:B387" si="39">B323+1</f>
+        <f t="shared" ref="B324:B327" si="39">B323+1</f>
         <v>1911</v>
       </c>
       <c r="C324" s="4">
@@ -24651,7 +25016,7 @@
     <row r="332" spans="1:4">
       <c r="A332" s="2"/>
       <c r="B332" s="1">
-        <f t="shared" ref="B332:B395" si="40">B331+1</f>
+        <f t="shared" ref="B332:B335" si="40">B331+1</f>
         <v>1911</v>
       </c>
       <c r="C332" s="4">
@@ -24753,7 +25118,7 @@
     <row r="340" spans="1:4">
       <c r="A340" s="2"/>
       <c r="B340" s="1">
-        <f t="shared" ref="B340:B371" si="41">B339+1</f>
+        <f t="shared" ref="B340:B343" si="41">B339+1</f>
         <v>1911</v>
       </c>
       <c r="C340" s="4">
@@ -24855,7 +25220,7 @@
     <row r="348" spans="1:4">
       <c r="A348" s="2"/>
       <c r="B348" s="1">
-        <f t="shared" ref="B348:B379" si="42">B347+1</f>
+        <f t="shared" ref="B348:B351" si="42">B347+1</f>
         <v>1911</v>
       </c>
       <c r="C348" s="4">
@@ -24957,7 +25322,7 @@
     <row r="356" spans="1:4">
       <c r="A356" s="2"/>
       <c r="B356" s="1">
-        <f t="shared" ref="B356:B387" si="43">B355+1</f>
+        <f t="shared" ref="B356:B359" si="43">B355+1</f>
         <v>1911</v>
       </c>
       <c r="C356" s="4">
@@ -25059,7 +25424,7 @@
     <row r="364" spans="1:4">
       <c r="A364" s="2"/>
       <c r="B364" s="1">
-        <f t="shared" ref="B364:B395" si="44">B363+1</f>
+        <f t="shared" ref="B364:B367" si="44">B363+1</f>
         <v>1911</v>
       </c>
       <c r="C364" s="4">
@@ -25139,11 +25504,11 @@
       <c r="B370" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C370" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>105</v>
+      <c r="C370" s="4">
+        <v>41608</v>
+      </c>
+      <c r="D370" s="4">
+        <v>9389</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -25151,17 +25516,25 @@
       <c r="B371" s="1">
         <v>1910</v>
       </c>
-      <c r="C371" s="4"/>
-      <c r="D371" s="4"/>
+      <c r="C371" s="4">
+        <v>1059</v>
+      </c>
+      <c r="D371" s="4">
+        <v>763</v>
+      </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2"/>
       <c r="B372" s="1">
-        <f t="shared" ref="B372:B403" si="45">B371+1</f>
+        <f t="shared" ref="B372:B375" si="45">B371+1</f>
         <v>1911</v>
       </c>
-      <c r="C372" s="4"/>
-      <c r="D372" s="4"/>
+      <c r="C372" s="4">
+        <v>1281</v>
+      </c>
+      <c r="D372" s="4">
+        <v>499</v>
+      </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2"/>
@@ -25169,8 +25542,12 @@
         <f t="shared" si="45"/>
         <v>1912</v>
       </c>
-      <c r="C373" s="4"/>
-      <c r="D373" s="4"/>
+      <c r="C373" s="4">
+        <v>1213</v>
+      </c>
+      <c r="D373" s="4">
+        <v>384</v>
+      </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2"/>
@@ -25178,8 +25555,12 @@
         <f t="shared" si="45"/>
         <v>1913</v>
       </c>
-      <c r="C374" s="4"/>
-      <c r="D374" s="4"/>
+      <c r="C374" s="4">
+        <v>844</v>
+      </c>
+      <c r="D374" s="4">
+        <v>433</v>
+      </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2"/>
@@ -25187,24 +25568,36 @@
         <f t="shared" si="45"/>
         <v>1914</v>
       </c>
-      <c r="C375" s="4"/>
-      <c r="D375" s="4"/>
+      <c r="C375" s="4">
+        <v>1069</v>
+      </c>
+      <c r="D375" s="4">
+        <v>339</v>
+      </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C376" s="4"/>
-      <c r="D376" s="4"/>
+      <c r="C376" s="4">
+        <v>5466</v>
+      </c>
+      <c r="D376" s="4">
+        <v>2418</v>
+      </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2"/>
       <c r="B377" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C377" s="4"/>
-      <c r="D377" s="4"/>
+      <c r="C377" s="4">
+        <v>47074</v>
+      </c>
+      <c r="D377" s="4">
+        <v>11807</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="7" t="s">
@@ -25213,25 +25606,37 @@
       <c r="B378" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C378" s="4"/>
-      <c r="D378" s="4"/>
+      <c r="C378" s="4">
+        <v>3773</v>
+      </c>
+      <c r="D378" s="4">
+        <v>767</v>
+      </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2"/>
       <c r="B379" s="1">
         <v>1910</v>
       </c>
-      <c r="C379" s="4"/>
-      <c r="D379" s="4"/>
+      <c r="C379" s="4">
+        <v>165</v>
+      </c>
+      <c r="D379" s="4">
+        <v>215</v>
+      </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2"/>
       <c r="B380" s="1">
-        <f t="shared" ref="B380:B411" si="46">B379+1</f>
+        <f t="shared" ref="B380:B383" si="46">B379+1</f>
         <v>1911</v>
       </c>
-      <c r="C380" s="4"/>
-      <c r="D380" s="4"/>
+      <c r="C380" s="4">
+        <v>134</v>
+      </c>
+      <c r="D380" s="4">
+        <v>128</v>
+      </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2"/>
@@ -25239,8 +25644,12 @@
         <f t="shared" si="46"/>
         <v>1912</v>
       </c>
-      <c r="C381" s="4"/>
-      <c r="D381" s="4"/>
+      <c r="C381" s="4">
+        <v>98</v>
+      </c>
+      <c r="D381" s="4">
+        <v>18</v>
+      </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2"/>
@@ -25248,8 +25657,12 @@
         <f t="shared" si="46"/>
         <v>1913</v>
       </c>
-      <c r="C382" s="4"/>
-      <c r="D382" s="4"/>
+      <c r="C382" s="4">
+        <v>75</v>
+      </c>
+      <c r="D382" s="4">
+        <v>54</v>
+      </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2"/>
@@ -25257,24 +25670,36 @@
         <f t="shared" si="46"/>
         <v>1914</v>
       </c>
-      <c r="C383" s="4"/>
-      <c r="D383" s="4"/>
+      <c r="C383" s="4">
+        <v>64</v>
+      </c>
+      <c r="D383" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2"/>
       <c r="B384" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C384" s="4"/>
-      <c r="D384" s="4"/>
+      <c r="C384" s="4">
+        <v>536</v>
+      </c>
+      <c r="D384" s="4">
+        <v>443</v>
+      </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2"/>
       <c r="B385" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C385" s="4"/>
-      <c r="D385" s="4"/>
+      <c r="C385" s="4">
+        <v>4309</v>
+      </c>
+      <c r="D385" s="4">
+        <v>1210</v>
+      </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="7" t="s">
@@ -25283,25 +25708,37 @@
       <c r="B386" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C386" s="4"/>
-      <c r="D386" s="4"/>
+      <c r="C386" s="4">
+        <v>220305</v>
+      </c>
+      <c r="D386" s="4">
+        <v>42437</v>
+      </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2"/>
       <c r="B387" s="1">
         <v>1910</v>
       </c>
-      <c r="C387" s="4"/>
-      <c r="D387" s="4"/>
+      <c r="C387" s="4">
+        <v>13656</v>
+      </c>
+      <c r="D387" s="4">
+        <v>4898</v>
+      </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2"/>
       <c r="B388" s="1">
-        <f t="shared" ref="B388:B419" si="47">B387+1</f>
+        <f t="shared" ref="B388:B391" si="47">B387+1</f>
         <v>1911</v>
       </c>
-      <c r="C388" s="4"/>
-      <c r="D388" s="4"/>
+      <c r="C388" s="4">
+        <v>10936</v>
+      </c>
+      <c r="D388" s="4">
+        <v>4288</v>
+      </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2"/>
@@ -25309,8 +25746,12 @@
         <f t="shared" si="47"/>
         <v>1912</v>
       </c>
-      <c r="C389" s="4"/>
-      <c r="D389" s="4"/>
+      <c r="C389" s="4">
+        <v>9265</v>
+      </c>
+      <c r="D389" s="4">
+        <v>3151</v>
+      </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2"/>
@@ -25318,8 +25759,12 @@
         <f t="shared" si="47"/>
         <v>1913</v>
       </c>
-      <c r="C390" s="4"/>
-      <c r="D390" s="4"/>
+      <c r="C390" s="4">
+        <v>9106</v>
+      </c>
+      <c r="D390" s="4">
+        <v>3421</v>
+      </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2"/>
@@ -25327,24 +25772,36 @@
         <f t="shared" si="47"/>
         <v>1914</v>
       </c>
-      <c r="C391" s="4"/>
-      <c r="D391" s="4"/>
+      <c r="C391" s="4">
+        <v>7421</v>
+      </c>
+      <c r="D391" s="4">
+        <v>2721</v>
+      </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2"/>
       <c r="B392" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C392" s="4"/>
-      <c r="D392" s="4"/>
+      <c r="C392" s="4">
+        <v>50384</v>
+      </c>
+      <c r="D392" s="4">
+        <v>18487</v>
+      </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2"/>
       <c r="B393" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C393" s="4"/>
-      <c r="D393" s="4"/>
+      <c r="C393" s="4">
+        <v>270689</v>
+      </c>
+      <c r="D393" s="4">
+        <v>60921</v>
+      </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="7" t="s">
@@ -25375,7 +25832,7 @@
     <row r="396" spans="1:4">
       <c r="A396" s="2"/>
       <c r="B396" s="1">
-        <f t="shared" ref="B396:B427" si="48">B395+1</f>
+        <f t="shared" ref="B396:B399" si="48">B395+1</f>
         <v>1911</v>
       </c>
       <c r="C396" s="4">
@@ -25477,7 +25934,7 @@
     <row r="404" spans="1:4">
       <c r="A404" s="2"/>
       <c r="B404" s="1">
-        <f t="shared" ref="B404:B435" si="49">B403+1</f>
+        <f t="shared" ref="B404:B407" si="49">B403+1</f>
         <v>1911</v>
       </c>
       <c r="C404" s="4">
@@ -25579,7 +26036,7 @@
     <row r="412" spans="1:4">
       <c r="A412" s="2"/>
       <c r="B412" s="1">
-        <f t="shared" ref="B412:B443" si="50">B411+1</f>
+        <f t="shared" ref="B412:B415" si="50">B411+1</f>
         <v>1911</v>
       </c>
       <c r="C412" s="4">
@@ -25681,7 +26138,7 @@
     <row r="420" spans="1:4">
       <c r="A420" s="2"/>
       <c r="B420" s="1">
-        <f t="shared" ref="B420:B451" si="51">B419+1</f>
+        <f t="shared" ref="B420:B423" si="51">B419+1</f>
         <v>1911</v>
       </c>
       <c r="C420" s="4">
@@ -25783,7 +26240,7 @@
     <row r="428" spans="1:4">
       <c r="A428" s="2"/>
       <c r="B428" s="1">
-        <f t="shared" ref="B428:B459" si="52">B427+1</f>
+        <f t="shared" ref="B428:B431" si="52">B427+1</f>
         <v>1911</v>
       </c>
       <c r="C428" s="4">
@@ -25850,7 +26307,7 @@
         <v>101</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D433" s="4">
         <v>13528</v>
@@ -25885,7 +26342,7 @@
     <row r="436" spans="1:4">
       <c r="A436" s="2"/>
       <c r="B436" s="1">
-        <f t="shared" ref="B436:B467" si="53">B435+1</f>
+        <f t="shared" ref="B436:B439" si="53">B435+1</f>
         <v>1911</v>
       </c>
       <c r="C436" s="4">
@@ -25965,11 +26422,11 @@
       <c r="B442" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C442" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D442" s="4" t="s">
-        <v>105</v>
+      <c r="C442" s="4">
+        <v>3525</v>
+      </c>
+      <c r="D442" s="4">
+        <v>862</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -25977,17 +26434,25 @@
       <c r="B443" s="1">
         <v>1910</v>
       </c>
-      <c r="C443" s="4"/>
-      <c r="D443" s="4"/>
+      <c r="C443" s="4">
+        <v>383</v>
+      </c>
+      <c r="D443" s="4">
+        <v>105</v>
+      </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2"/>
       <c r="B444" s="1">
-        <f t="shared" ref="B444:B475" si="54">B443+1</f>
+        <f t="shared" ref="B444:B447" si="54">B443+1</f>
         <v>1911</v>
       </c>
-      <c r="C444" s="4"/>
-      <c r="D444" s="4"/>
+      <c r="C444" s="4">
+        <v>411</v>
+      </c>
+      <c r="D444" s="4">
+        <v>192</v>
+      </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2"/>
@@ -25995,8 +26460,12 @@
         <f t="shared" si="54"/>
         <v>1912</v>
       </c>
-      <c r="C445" s="4"/>
-      <c r="D445" s="4"/>
+      <c r="C445" s="4">
+        <v>642</v>
+      </c>
+      <c r="D445" s="4">
+        <v>133</v>
+      </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2"/>
@@ -26004,8 +26473,12 @@
         <f t="shared" si="54"/>
         <v>1913</v>
       </c>
-      <c r="C446" s="4"/>
-      <c r="D446" s="4"/>
+      <c r="C446" s="4">
+        <v>411</v>
+      </c>
+      <c r="D446" s="4">
+        <v>77</v>
+      </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2"/>
@@ -26013,24 +26486,36 @@
         <f t="shared" si="54"/>
         <v>1914</v>
       </c>
-      <c r="C447" s="4"/>
-      <c r="D447" s="4"/>
+      <c r="C447" s="4">
+        <v>140</v>
+      </c>
+      <c r="D447" s="4">
+        <v>161</v>
+      </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2"/>
       <c r="B448" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C448" s="4"/>
-      <c r="D448" s="4"/>
+      <c r="C448" s="4">
+        <v>1987</v>
+      </c>
+      <c r="D448" s="4">
+        <v>668</v>
+      </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2"/>
       <c r="B449" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C449" s="4"/>
-      <c r="D449" s="4"/>
+      <c r="C449" s="4">
+        <v>5512</v>
+      </c>
+      <c r="D449" s="4">
+        <v>1530</v>
+      </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="7" t="s">
@@ -26039,25 +26524,37 @@
       <c r="B450" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C450" s="4"/>
-      <c r="D450" s="4"/>
+      <c r="C450" s="4">
+        <v>3422</v>
+      </c>
+      <c r="D450" s="4">
+        <v>583</v>
+      </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2"/>
       <c r="B451" s="1">
         <v>1910</v>
       </c>
-      <c r="C451" s="4"/>
-      <c r="D451" s="4"/>
+      <c r="C451" s="4">
+        <v>431</v>
+      </c>
+      <c r="D451" s="4">
+        <v>61</v>
+      </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2"/>
       <c r="B452" s="1">
-        <f t="shared" ref="B452:B483" si="55">B451+1</f>
+        <f t="shared" ref="B452:B455" si="55">B451+1</f>
         <v>1911</v>
       </c>
-      <c r="C452" s="4"/>
-      <c r="D452" s="4"/>
+      <c r="C452" s="4">
+        <v>81</v>
+      </c>
+      <c r="D452" s="4">
+        <v>81</v>
+      </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2"/>
@@ -26065,8 +26562,12 @@
         <f t="shared" si="55"/>
         <v>1912</v>
       </c>
-      <c r="C453" s="4"/>
-      <c r="D453" s="4"/>
+      <c r="C453" s="4">
+        <v>110</v>
+      </c>
+      <c r="D453" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2"/>
@@ -26074,8 +26575,12 @@
         <f t="shared" si="55"/>
         <v>1913</v>
       </c>
-      <c r="C454" s="4"/>
-      <c r="D454" s="4"/>
+      <c r="C454" s="4">
+        <v>78</v>
+      </c>
+      <c r="D454" s="4">
+        <v>82</v>
+      </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2"/>
@@ -26083,24 +26588,36 @@
         <f t="shared" si="55"/>
         <v>1914</v>
       </c>
-      <c r="C455" s="4"/>
-      <c r="D455" s="4"/>
+      <c r="C455" s="4">
+        <v>40</v>
+      </c>
+      <c r="D455" s="4">
+        <v>83</v>
+      </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2"/>
       <c r="B456" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C456" s="4"/>
-      <c r="D456" s="4"/>
+      <c r="C456" s="4">
+        <v>440</v>
+      </c>
+      <c r="D456" s="4">
+        <v>387</v>
+      </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2"/>
       <c r="B457" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C457" s="4"/>
-      <c r="D457" s="4"/>
+      <c r="C457" s="4">
+        <v>3862</v>
+      </c>
+      <c r="D457" s="4">
+        <v>970</v>
+      </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="7" t="s">
@@ -26109,25 +26626,37 @@
       <c r="B458" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C458" s="4"/>
-      <c r="D458" s="4"/>
+      <c r="C458" s="4">
+        <v>15553</v>
+      </c>
+      <c r="D458" s="4">
+        <v>2448</v>
+      </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2"/>
       <c r="B459" s="1">
         <v>1910</v>
       </c>
-      <c r="C459" s="4"/>
-      <c r="D459" s="4"/>
+      <c r="C459" s="4">
+        <v>1222</v>
+      </c>
+      <c r="D459" s="4">
+        <v>306</v>
+      </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2"/>
       <c r="B460" s="1">
-        <f t="shared" ref="B460:B491" si="56">B459+1</f>
+        <f t="shared" ref="B460:B463" si="56">B459+1</f>
         <v>1911</v>
       </c>
-      <c r="C460" s="4"/>
-      <c r="D460" s="4"/>
+      <c r="C460" s="4">
+        <v>711</v>
+      </c>
+      <c r="D460" s="4">
+        <v>311</v>
+      </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2"/>
@@ -26135,8 +26664,12 @@
         <f t="shared" si="56"/>
         <v>1912</v>
       </c>
-      <c r="C461" s="4"/>
-      <c r="D461" s="4"/>
+      <c r="C461" s="4">
+        <v>347</v>
+      </c>
+      <c r="D461" s="4">
+        <v>200</v>
+      </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2"/>
@@ -26144,8 +26677,12 @@
         <f t="shared" si="56"/>
         <v>1913</v>
       </c>
-      <c r="C462" s="4"/>
-      <c r="D462" s="4"/>
+      <c r="C462" s="4">
+        <v>419</v>
+      </c>
+      <c r="D462" s="4">
+        <v>124</v>
+      </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2"/>
@@ -26153,24 +26690,36 @@
         <f t="shared" si="56"/>
         <v>1914</v>
       </c>
-      <c r="C463" s="4"/>
-      <c r="D463" s="4"/>
+      <c r="C463" s="4">
+        <v>286</v>
+      </c>
+      <c r="D463" s="4">
+        <v>90</v>
+      </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2"/>
       <c r="B464" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C464" s="4"/>
-      <c r="D464" s="4"/>
+      <c r="C464" s="4">
+        <v>2985</v>
+      </c>
+      <c r="D464" s="4">
+        <v>1031</v>
+      </c>
     </row>
     <row r="465" spans="1:6">
       <c r="A465" s="2"/>
       <c r="B465" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C465" s="4"/>
-      <c r="D465" s="4"/>
+      <c r="C465" s="4">
+        <v>18538</v>
+      </c>
+      <c r="D465" s="4">
+        <v>3479</v>
+      </c>
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="7" t="s">
@@ -26202,7 +26751,7 @@
     <row r="468" spans="1:6">
       <c r="A468" s="2"/>
       <c r="B468" s="1">
-        <f t="shared" ref="B468:B499" si="57">B467+1</f>
+        <f t="shared" ref="B468:B471" si="57">B467+1</f>
         <v>1911</v>
       </c>
       <c r="C468" s="4">
@@ -26305,7 +26854,7 @@
     <row r="476" spans="1:6">
       <c r="A476" s="2"/>
       <c r="B476" s="1">
-        <f t="shared" ref="B476:B507" si="58">B475+1</f>
+        <f t="shared" ref="B476:B479" si="58">B475+1</f>
         <v>1911</v>
       </c>
       <c r="C476" s="4">
@@ -26407,7 +26956,7 @@
     <row r="484" spans="1:4">
       <c r="A484" s="2"/>
       <c r="B484" s="1">
-        <f t="shared" ref="B484:B515" si="59">B483+1</f>
+        <f t="shared" ref="B484:B487" si="59">B483+1</f>
         <v>1911</v>
       </c>
       <c r="C484" s="4">
@@ -26501,7 +27050,7 @@
     <row r="492" spans="1:4">
       <c r="A492" s="2"/>
       <c r="B492" s="1">
-        <f t="shared" ref="B492:B537" si="60">B491+1</f>
+        <f t="shared" ref="B492:B495" si="60">B491+1</f>
         <v>1911</v>
       </c>
       <c r="C492" s="4"/>
@@ -26593,7 +27142,7 @@
     <row r="500" spans="1:4">
       <c r="A500" s="2"/>
       <c r="B500" s="1">
-        <f t="shared" ref="B500:B537" si="61">B499+1</f>
+        <f t="shared" ref="B500:B503" si="61">B499+1</f>
         <v>1911</v>
       </c>
       <c r="C500" s="4">
@@ -26695,7 +27244,7 @@
     <row r="508" spans="1:4">
       <c r="A508" s="2"/>
       <c r="B508" s="1">
-        <f t="shared" ref="B508:B537" si="62">B507+1</f>
+        <f t="shared" ref="B508:B511" si="62">B507+1</f>
         <v>1911</v>
       </c>
       <c r="C508" s="4">
@@ -26797,7 +27346,7 @@
     <row r="516" spans="1:4">
       <c r="A516" s="2"/>
       <c r="B516" s="1">
-        <f t="shared" ref="B516:B537" si="63">B515+1</f>
+        <f t="shared" ref="B516:B519" si="63">B515+1</f>
         <v>1911</v>
       </c>
       <c r="C516" s="4">
@@ -26899,7 +27448,7 @@
     <row r="524" spans="1:4">
       <c r="A524" s="2"/>
       <c r="B524" s="1">
-        <f t="shared" ref="B524:B537" si="64">B523+1</f>
+        <f t="shared" ref="B524:B527" si="64">B523+1</f>
         <v>1911</v>
       </c>
       <c r="C524" s="4">
@@ -27001,7 +27550,7 @@
     <row r="532" spans="1:4">
       <c r="A532" s="2"/>
       <c r="B532" s="1">
-        <f t="shared" ref="B532:B537" si="65">B531+1</f>
+        <f t="shared" ref="B532:B535" si="65">B531+1</f>
         <v>1911</v>
       </c>
       <c r="C532" s="4">
@@ -27176,18 +27725,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561D72E-8044-419A-9147-776CFA5F2686}">
-  <dimension ref="A1:E257"/>
+  <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -27201,149 +27748,211 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="4">
+        <v>214969</v>
+      </c>
+      <c r="D2" s="4">
+        <v>76318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>1910</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3" s="4">
+        <v>32667</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <f>B3+1</f>
         <v>1911</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" s="4">
+        <v>20202</v>
+      </c>
+      <c r="D4" s="4">
+        <v>26450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <f>B4+1</f>
         <v>1912</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="C5" s="4">
+        <v>8134</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <f>B5+1</f>
         <v>1913</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="C6" s="4">
+        <v>25673</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <f>B6+1</f>
         <v>1914</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="C7" s="4">
+        <v>30351</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="C8" s="4">
+        <v>117027</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60312</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="4">
+        <v>331996</v>
+      </c>
+      <c r="D9" s="4">
+        <v>136630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="4">
+        <v>19716</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="1">
         <v>1910</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="C11" s="4">
+        <v>9556</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:B75" si="0">B11+1</f>
+        <f t="shared" ref="B12:B15" si="0">B11+1</f>
         <v>1911</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="C12" s="4">
+        <v>3108</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>1912</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="C13" s="4">
+        <v>1978</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>1913</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="C14" s="4">
+        <v>15009</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
         <v>1914</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="C15" s="4">
+        <v>17762</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="4">
+        <v>47413</v>
+      </c>
+      <c r="D16" s="4">
+        <v>16990</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="4">
+        <v>67129</v>
+      </c>
+      <c r="D17" s="4">
+        <v>19429</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="7" t="s">
@@ -27352,25 +27961,37 @@
       <c r="B18" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4">
+        <v>589734</v>
+      </c>
+      <c r="D18" s="4">
+        <v>119150</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>1910</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="4">
+        <v>56945</v>
+      </c>
+      <c r="D19" s="4">
+        <v>27708</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <f t="shared" ref="B20:B83" si="1">B19+1</f>
+        <f t="shared" ref="B20:B23" si="1">B19+1</f>
         <v>1911</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="C20" s="4">
+        <v>26806</v>
+      </c>
+      <c r="D20" s="4">
+        <v>24129</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2"/>
@@ -27378,8 +27999,12 @@
         <f t="shared" si="1"/>
         <v>1912</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="4">
+        <v>22214</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15573</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2"/>
@@ -27387,8 +28012,12 @@
         <f t="shared" si="1"/>
         <v>1913</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="C22" s="4">
+        <v>45379</v>
+      </c>
+      <c r="D22" s="4">
+        <v>16334</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2"/>
@@ -27396,24 +28025,36 @@
         <f t="shared" si="1"/>
         <v>1914</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="4">
+        <v>54853</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16126</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="C24" s="4">
+        <v>206197</v>
+      </c>
+      <c r="D24" s="4">
+        <v>99870</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="C25" s="4">
+        <v>795931</v>
+      </c>
+      <c r="D25" s="4">
+        <v>219020</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="7" t="s">
@@ -27444,7 +28085,7 @@
     <row r="28" spans="1:4">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B91" si="2">B27+1</f>
+        <f t="shared" ref="B28:B31" si="2">B27+1</f>
         <v>1911</v>
       </c>
       <c r="C28" s="4">
@@ -27546,7 +28187,7 @@
     <row r="36" spans="1:4">
       <c r="A36" s="2"/>
       <c r="B36" s="1">
-        <f t="shared" ref="B36:B99" si="3">B35+1</f>
+        <f t="shared" ref="B36:B39" si="3">B35+1</f>
         <v>1911</v>
       </c>
       <c r="C36" s="4">
@@ -27648,7 +28289,7 @@
     <row r="44" spans="1:4">
       <c r="A44" s="2"/>
       <c r="B44" s="1">
-        <f t="shared" ref="B44:B107" si="4">B43+1</f>
+        <f t="shared" ref="B44:B47" si="4">B43+1</f>
         <v>1911</v>
       </c>
       <c r="C44" s="4">
@@ -27728,11 +28369,11 @@
       <c r="B50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>105</v>
+      <c r="C50" s="4">
+        <v>1569</v>
+      </c>
+      <c r="D50" s="4">
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -27740,17 +28381,25 @@
       <c r="B51" s="1">
         <v>1910</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="C51" s="4">
+        <v>218</v>
+      </c>
+      <c r="D51" s="4">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2"/>
       <c r="B52" s="1">
-        <f t="shared" ref="B52:B83" si="5">B51+1</f>
+        <f t="shared" ref="B52:B55" si="5">B51+1</f>
         <v>1911</v>
       </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="C52" s="4">
+        <v>551</v>
+      </c>
+      <c r="D52" s="4">
+        <v>92</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2"/>
@@ -27758,8 +28407,12 @@
         <f t="shared" si="5"/>
         <v>1912</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="4">
+        <v>607</v>
+      </c>
+      <c r="D53" s="4">
+        <v>112</v>
+      </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2"/>
@@ -27767,8 +28420,12 @@
         <f t="shared" si="5"/>
         <v>1913</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="4">
+        <v>731</v>
+      </c>
+      <c r="D54" s="4">
+        <v>410</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2"/>
@@ -27776,24 +28433,36 @@
         <f t="shared" si="5"/>
         <v>1914</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="4">
+        <v>720</v>
+      </c>
+      <c r="D55" s="4">
+        <v>208</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="4">
+        <v>2827</v>
+      </c>
+      <c r="D56" s="4">
+        <v>856</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="4">
+        <v>4396</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1476</v>
+      </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
@@ -27802,25 +28471,37 @@
       <c r="B58" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="4">
+        <v>390</v>
+      </c>
+      <c r="D58" s="4">
+        <v>93</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2"/>
       <c r="B59" s="1">
         <v>1910</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="4">
+        <v>148</v>
+      </c>
+      <c r="D59" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2"/>
       <c r="B60" s="1">
-        <f t="shared" ref="B60:B91" si="6">B59+1</f>
+        <f t="shared" ref="B60:B63" si="6">B59+1</f>
         <v>1911</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="4">
+        <v>112</v>
+      </c>
+      <c r="D60" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2"/>
@@ -27828,8 +28509,12 @@
         <f t="shared" si="6"/>
         <v>1912</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="4">
+        <v>213</v>
+      </c>
+      <c r="D61" s="4">
+        <v>53</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2"/>
@@ -27837,8 +28522,12 @@
         <f t="shared" si="6"/>
         <v>1913</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="4">
+        <v>199</v>
+      </c>
+      <c r="D62" s="4">
+        <v>72</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2"/>
@@ -27846,24 +28535,36 @@
         <f t="shared" si="6"/>
         <v>1914</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="4">
+        <v>302</v>
+      </c>
+      <c r="D63" s="4">
+        <v>290</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="4">
+        <v>974</v>
+      </c>
+      <c r="D64" s="4">
+        <v>498</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="C65" s="4">
+        <v>1364</v>
+      </c>
+      <c r="D65" s="4">
+        <v>591</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="7" t="s">
@@ -27872,25 +28573,37 @@
       <c r="B66" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="C66" s="4">
+        <v>942764</v>
+      </c>
+      <c r="D66" s="4">
+        <v>216066</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2"/>
       <c r="B67" s="1">
         <v>1910</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="C67" s="4">
+        <v>121744</v>
+      </c>
+      <c r="D67" s="4">
+        <v>48234</v>
+      </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2"/>
       <c r="B68" s="1">
-        <f t="shared" ref="B68:B99" si="7">B67+1</f>
+        <f t="shared" ref="B68:B71" si="7">B67+1</f>
         <v>1911</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="C68" s="4">
+        <v>61506</v>
+      </c>
+      <c r="D68" s="4">
+        <v>61670</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2"/>
@@ -27898,8 +28611,12 @@
         <f t="shared" si="7"/>
         <v>1912</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="C69" s="4">
+        <v>54578</v>
+      </c>
+      <c r="D69" s="4">
+        <v>29254</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2"/>
@@ -27907,8 +28624,12 @@
         <f t="shared" si="7"/>
         <v>1913</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="C70" s="4">
+        <v>128917</v>
+      </c>
+      <c r="D70" s="4">
+        <v>39679</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2"/>
@@ -27916,24 +28637,36 @@
         <f t="shared" si="7"/>
         <v>1914</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="C71" s="4">
+        <v>152640</v>
+      </c>
+      <c r="D71" s="4">
+        <v>36290</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="C72" s="4">
+        <v>519385</v>
+      </c>
+      <c r="D72" s="4">
+        <v>215127</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="C73" s="4">
+        <v>1462149</v>
+      </c>
+      <c r="D73" s="4">
+        <v>431193</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="7" t="s">
@@ -27964,7 +28697,7 @@
     <row r="76" spans="1:4">
       <c r="A76" s="2"/>
       <c r="B76" s="1">
-        <f t="shared" ref="B76:B107" si="8">B75+1</f>
+        <f t="shared" ref="B76:B79" si="8">B75+1</f>
         <v>1911</v>
       </c>
       <c r="C76" s="4">
@@ -28066,7 +28799,7 @@
     <row r="84" spans="1:4">
       <c r="A84" s="2"/>
       <c r="B84" s="1">
-        <f t="shared" ref="B84:B115" si="9">B83+1</f>
+        <f t="shared" ref="B84:B87" si="9">B83+1</f>
         <v>1911</v>
       </c>
       <c r="C84" s="4">
@@ -28168,7 +28901,7 @@
     <row r="92" spans="1:4">
       <c r="A92" s="2"/>
       <c r="B92" s="1">
-        <f t="shared" ref="B92:B123" si="10">B91+1</f>
+        <f t="shared" ref="B92:B95" si="10">B91+1</f>
         <v>1911</v>
       </c>
       <c r="C92" s="4">
@@ -28266,7 +28999,7 @@
     <row r="100" spans="1:4">
       <c r="A100" s="2"/>
       <c r="B100" s="1">
-        <f t="shared" ref="B100:B131" si="11">B99+1</f>
+        <f t="shared" ref="B100:B103" si="11">B99+1</f>
         <v>1911</v>
       </c>
       <c r="C100" s="4"/>
@@ -28348,7 +29081,7 @@
     <row r="108" spans="1:4">
       <c r="A108" s="2"/>
       <c r="B108" s="1">
-        <f t="shared" ref="B108:B139" si="12">B107+1</f>
+        <f t="shared" ref="B108:B111" si="12">B107+1</f>
         <v>1911</v>
       </c>
       <c r="C108" s="4">
@@ -28450,7 +29183,7 @@
     <row r="116" spans="1:4">
       <c r="A116" s="2"/>
       <c r="B116" s="1">
-        <f t="shared" ref="B116:B147" si="13">B115+1</f>
+        <f t="shared" ref="B116:B119" si="13">B115+1</f>
         <v>1911</v>
       </c>
       <c r="C116" s="4">
@@ -28552,7 +29285,7 @@
     <row r="124" spans="1:4">
       <c r="A124" s="2"/>
       <c r="B124" s="1">
-        <f t="shared" ref="B124:B155" si="14">B123+1</f>
+        <f t="shared" ref="B124:B127" si="14">B123+1</f>
         <v>1911</v>
       </c>
       <c r="C124" s="4">
@@ -28654,7 +29387,7 @@
     <row r="132" spans="1:4">
       <c r="A132" s="2"/>
       <c r="B132" s="1">
-        <f t="shared" ref="B132:B163" si="15">B131+1</f>
+        <f t="shared" ref="B132:B135" si="15">B131+1</f>
         <v>1911</v>
       </c>
       <c r="C132" s="4">
@@ -28756,7 +29489,7 @@
     <row r="140" spans="1:4">
       <c r="A140" s="2"/>
       <c r="B140" s="1">
-        <f t="shared" ref="B140:B171" si="16">B139+1</f>
+        <f t="shared" ref="B140:B143" si="16">B139+1</f>
         <v>1911</v>
       </c>
       <c r="C140" s="4">
@@ -28836,11 +29569,11 @@
       <c r="B146" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>105</v>
+      <c r="C146" s="4">
+        <v>13279</v>
+      </c>
+      <c r="D146" s="4">
+        <v>6432</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -28848,17 +29581,25 @@
       <c r="B147" s="1">
         <v>1910</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="C147" s="4">
+        <v>1580</v>
+      </c>
+      <c r="D147" s="4">
+        <v>426</v>
+      </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2"/>
       <c r="B148" s="1">
-        <f t="shared" ref="B148:B179" si="17">B147+1</f>
+        <f t="shared" ref="B148:B151" si="17">B147+1</f>
         <v>1911</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="C148" s="4">
+        <v>2212</v>
+      </c>
+      <c r="D148" s="4">
+        <v>375</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2"/>
@@ -28866,8 +29607,12 @@
         <f t="shared" si="17"/>
         <v>1912</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="C149" s="4">
+        <v>4215</v>
+      </c>
+      <c r="D149" s="4">
+        <v>779</v>
+      </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2"/>
@@ -28875,8 +29620,12 @@
         <f t="shared" si="17"/>
         <v>1913</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="C150" s="4">
+        <v>4070</v>
+      </c>
+      <c r="D150" s="4">
+        <v>710</v>
+      </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2"/>
@@ -28884,24 +29633,36 @@
         <f t="shared" si="17"/>
         <v>1914</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="C151" s="4">
+        <v>2734</v>
+      </c>
+      <c r="D151" s="4">
+        <v>710</v>
+      </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="C152" s="4">
+        <v>14811</v>
+      </c>
+      <c r="D152" s="4">
+        <v>3000</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4">
+        <v>28090</v>
+      </c>
+      <c r="D153" s="4">
+        <v>9432</v>
+      </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="7" t="s">
@@ -28910,25 +29671,37 @@
       <c r="B154" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="C154" s="4">
+        <v>96770</v>
+      </c>
+      <c r="D154" s="4">
+        <v>14683</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2"/>
       <c r="B155" s="1">
         <v>1910</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="C155" s="4">
+        <v>22657</v>
+      </c>
+      <c r="D155" s="4">
+        <v>4856</v>
+      </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2"/>
       <c r="B156" s="1">
-        <f t="shared" ref="B156:B187" si="18">B155+1</f>
+        <f t="shared" ref="B156:B159" si="18">B155+1</f>
         <v>1911</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="C156" s="4">
+        <v>6783</v>
+      </c>
+      <c r="D156" s="4">
+        <v>2553</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2"/>
@@ -28936,8 +29709,12 @@
         <f t="shared" si="18"/>
         <v>1912</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="C157" s="4">
+        <v>7963</v>
+      </c>
+      <c r="D157" s="4">
+        <v>1813</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2"/>
@@ -28945,8 +29722,12 @@
         <f t="shared" si="18"/>
         <v>1913</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="C158" s="4">
+        <v>10328</v>
+      </c>
+      <c r="D158" s="4">
+        <v>2618</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2"/>
@@ -28954,130 +29735,173 @@
         <f t="shared" si="18"/>
         <v>1914</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="C159" s="4">
+        <v>19902</v>
+      </c>
+      <c r="D159" s="4">
+        <v>5201</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="C160" s="4">
+        <v>67633</v>
+      </c>
+      <c r="D160" s="4">
+        <v>17041</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="C161" s="4">
+        <v>164403</v>
+      </c>
+      <c r="D161" s="4">
+        <v>31724</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="C162" s="4">
+        <v>185104</v>
+      </c>
+      <c r="D162" s="4">
+        <v>34117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="2"/>
       <c r="B163" s="1">
         <v>1910</v>
       </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="C163" s="4">
+        <v>13723</v>
+      </c>
+      <c r="D163" s="4">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="2"/>
       <c r="B164" s="1">
-        <f t="shared" ref="B164:B195" si="19">B163+1</f>
+        <f t="shared" ref="B164:B167" si="19">B163+1</f>
         <v>1911</v>
       </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="C164" s="4">
+        <v>10508</v>
+      </c>
+      <c r="D164" s="4">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="2"/>
       <c r="B165" s="1">
         <f t="shared" si="19"/>
         <v>1912</v>
       </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="C165" s="4">
+        <v>12937</v>
+      </c>
+      <c r="D165" s="4">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="2"/>
       <c r="B166" s="1">
         <f t="shared" si="19"/>
         <v>1913</v>
       </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="C166" s="4">
+        <v>13062</v>
+      </c>
+      <c r="D166" s="4">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="2"/>
       <c r="B167" s="1">
         <f t="shared" si="19"/>
         <v>1914</v>
       </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="C167" s="4">
+        <v>16691</v>
+      </c>
+      <c r="D167" s="4">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="C168" s="4">
+        <v>66921</v>
+      </c>
+      <c r="D168" s="4">
+        <v>20549</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="C169" s="4">
+        <v>252025</v>
+      </c>
+      <c r="D169" s="4">
+        <v>54666</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E170" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="C170" s="4">
+        <v>129</v>
+      </c>
+      <c r="D170" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="2"/>
       <c r="B171" s="1">
         <v>1910</v>
       </c>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="D171" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="2"/>
       <c r="B172" s="1">
-        <f t="shared" ref="B172:B203" si="20">B171+1</f>
+        <f t="shared" ref="B172:B175" si="20">B171+1</f>
         <v>1911</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:4">
       <c r="A173" s="2"/>
       <c r="B173" s="1">
         <f t="shared" si="20"/>
@@ -29086,39 +29910,53 @@
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:4">
       <c r="A174" s="2"/>
       <c r="B174" s="1">
         <f t="shared" si="20"/>
         <v>1913</v>
       </c>
-      <c r="C174" s="4"/>
+      <c r="C174" s="4">
+        <v>8</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:4">
       <c r="A175" s="2"/>
       <c r="B175" s="1">
         <f t="shared" si="20"/>
         <v>1914</v>
       </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="C175" s="4">
+        <v>1</v>
+      </c>
+      <c r="D175" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="C176" s="4">
+        <v>9</v>
+      </c>
+      <c r="D176" s="4">
+        <v>6</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="C177" s="4">
+        <v>138</v>
+      </c>
+      <c r="D177" s="4">
+        <v>103</v>
+      </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="7" t="s">
@@ -29127,25 +29965,37 @@
       <c r="B178" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="C178" s="4">
+        <v>295282</v>
+      </c>
+      <c r="D178" s="4">
+        <v>55329</v>
+      </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2"/>
       <c r="B179" s="1">
         <v>1910</v>
       </c>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="C179" s="4">
+        <v>37960</v>
+      </c>
+      <c r="D179" s="4">
+        <v>9711</v>
+      </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2"/>
       <c r="B180" s="1">
-        <f t="shared" ref="B180:B211" si="21">B179+1</f>
+        <f t="shared" ref="B180:B183" si="21">B179+1</f>
         <v>1911</v>
       </c>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="C180" s="4">
+        <v>19503</v>
+      </c>
+      <c r="D180" s="4">
+        <v>5939</v>
+      </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2"/>
@@ -29153,8 +30003,12 @@
         <f t="shared" si="21"/>
         <v>1912</v>
       </c>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="C181" s="4">
+        <v>25115</v>
+      </c>
+      <c r="D181" s="4">
+        <v>5541</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2"/>
@@ -29162,8 +30016,12 @@
         <f t="shared" si="21"/>
         <v>1913</v>
       </c>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="C182" s="4">
+        <v>27468</v>
+      </c>
+      <c r="D182" s="4">
+        <v>7922</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2"/>
@@ -29171,24 +30029,36 @@
         <f t="shared" si="21"/>
         <v>1914</v>
       </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="C183" s="4">
+        <v>39328</v>
+      </c>
+      <c r="D183" s="4">
+        <v>11483</v>
+      </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="C184" s="4">
+        <v>149374</v>
+      </c>
+      <c r="D184" s="4">
+        <v>40596</v>
+      </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="C185" s="4">
+        <v>444656</v>
+      </c>
+      <c r="D185" s="4">
+        <v>95925</v>
+      </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="7" t="s">
@@ -29197,25 +30067,37 @@
       <c r="B186" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="C186" s="4">
+        <v>3482216</v>
+      </c>
+      <c r="D186" s="4">
+        <v>733293</v>
+      </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2"/>
       <c r="B187" s="1">
         <v>1910</v>
       </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="C187" s="4">
+        <v>313768</v>
+      </c>
+      <c r="D187" s="4">
+        <v>135872</v>
+      </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2"/>
       <c r="B188" s="1">
-        <f t="shared" ref="B188:B219" si="22">B187+1</f>
+        <f t="shared" ref="B188:B191" si="22">B187+1</f>
         <v>1911</v>
       </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="C188" s="4">
+        <v>199133</v>
+      </c>
+      <c r="D188" s="4">
+        <v>127158</v>
+      </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2"/>
@@ -29223,8 +30105,12 @@
         <f t="shared" si="22"/>
         <v>1912</v>
       </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="C189" s="4">
+        <v>249392</v>
+      </c>
+      <c r="D189" s="4">
+        <v>90391</v>
+      </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2"/>
@@ -29232,8 +30118,12 @@
         <f t="shared" si="22"/>
         <v>1913</v>
       </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="C190" s="4">
+        <v>328050</v>
+      </c>
+      <c r="D190" s="4">
+        <v>104206</v>
+      </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2"/>
@@ -29241,168 +30131,241 @@
         <f t="shared" si="22"/>
         <v>1914</v>
       </c>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="C191" s="4">
+        <v>335434</v>
+      </c>
+      <c r="D191" s="4">
+        <v>93967</v>
+      </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="C192" s="4">
+        <v>1425777</v>
+      </c>
+      <c r="D192" s="4">
+        <v>551594</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="C193" s="4">
+        <v>4907993</v>
+      </c>
+      <c r="D193" s="4">
+        <v>1284887</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="C194" s="4">
+        <v>86428</v>
+      </c>
+      <c r="D194" s="4">
+        <v>34252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2"/>
       <c r="B195" s="1">
         <v>1910</v>
       </c>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="C195" s="4">
+        <v>13163</v>
+      </c>
+      <c r="D195" s="4">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2"/>
       <c r="B196" s="1">
-        <f t="shared" ref="B196:B227" si="23">B195+1</f>
+        <f t="shared" ref="B196:B199" si="23">B195+1</f>
         <v>1911</v>
       </c>
-      <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="C196" s="4">
+        <v>6425</v>
+      </c>
+      <c r="D196" s="4">
+        <v>7504</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2"/>
       <c r="B197" s="1">
         <f t="shared" si="23"/>
         <v>1912</v>
       </c>
-      <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="C197" s="4">
+        <v>2533</v>
+      </c>
+      <c r="D197" s="4">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2"/>
       <c r="B198" s="1">
         <f t="shared" si="23"/>
         <v>1913</v>
       </c>
-      <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="C198" s="4">
+        <v>3153</v>
+      </c>
+      <c r="D198" s="4">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2"/>
       <c r="B199" s="1">
         <f t="shared" si="23"/>
         <v>1914</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="C199" s="4">
+        <v>653</v>
+      </c>
+      <c r="D199" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="C200" s="4">
+        <v>25927</v>
+      </c>
+      <c r="D200" s="4">
+        <v>12976</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="C201" s="4">
+        <v>112355</v>
+      </c>
+      <c r="D201" s="4">
+        <v>47228</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="C202" s="4">
+        <v>29951</v>
+      </c>
+      <c r="D202" s="4">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2"/>
       <c r="B203" s="1">
         <v>1910</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="C203" s="4">
+        <v>8413</v>
+      </c>
+      <c r="D203" s="4">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2"/>
       <c r="B204" s="1">
-        <f t="shared" ref="B204:B249" si="24">B203+1</f>
+        <f t="shared" ref="B204:B207" si="24">B203+1</f>
         <v>1911</v>
       </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="C204" s="4">
+        <v>6937</v>
+      </c>
+      <c r="D204" s="4">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2"/>
       <c r="B205" s="1">
         <f t="shared" si="24"/>
         <v>1912</v>
       </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="C205" s="4">
+        <v>2539</v>
+      </c>
+      <c r="D205" s="4">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2"/>
       <c r="B206" s="1">
         <f t="shared" si="24"/>
         <v>1913</v>
       </c>
-      <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="C206" s="4">
+        <v>1681</v>
+      </c>
+      <c r="D206" s="4">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2"/>
       <c r="B207" s="1">
         <f t="shared" si="24"/>
         <v>1914</v>
       </c>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="C207" s="4">
+        <v>7</v>
+      </c>
+      <c r="D207" s="4">
+        <v>3</v>
+      </c>
+      <c r="F207" s="4"/>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="C208" s="4">
+        <v>19577</v>
+      </c>
+      <c r="D208" s="4">
+        <v>5811</v>
+      </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="C209" s="4">
+        <v>49528</v>
+      </c>
+      <c r="D209" s="4">
+        <v>14434</v>
+      </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="7" t="s">
@@ -29411,25 +30374,37 @@
       <c r="B210" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="C210" s="4">
+        <v>12699</v>
+      </c>
+      <c r="D210" s="4">
+        <v>4606</v>
+      </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2"/>
       <c r="B211" s="1">
         <v>1910</v>
       </c>
-      <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="C211" s="4">
+        <v>16289</v>
+      </c>
+      <c r="D211" s="4">
+        <v>4086</v>
+      </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2"/>
       <c r="B212" s="1">
-        <f t="shared" ref="B212:B249" si="25">B211+1</f>
+        <f t="shared" ref="B212:B215" si="25">B211+1</f>
         <v>1911</v>
       </c>
-      <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="C212" s="4">
+        <v>12188</v>
+      </c>
+      <c r="D212" s="4">
+        <v>3835</v>
+      </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2"/>
@@ -29437,8 +30412,12 @@
         <f t="shared" si="25"/>
         <v>1912</v>
       </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="C213" s="4">
+        <v>4473</v>
+      </c>
+      <c r="D213" s="4">
+        <v>874</v>
+      </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2"/>
@@ -29446,8 +30425,12 @@
         <f t="shared" si="25"/>
         <v>1913</v>
       </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="C214" s="4">
+        <v>3354</v>
+      </c>
+      <c r="D214" s="4">
+        <v>1134</v>
+      </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2"/>
@@ -29455,7 +30438,9 @@
         <f t="shared" si="25"/>
         <v>1914</v>
       </c>
-      <c r="C215" s="4"/>
+      <c r="C215" s="4">
+        <v>2</v>
+      </c>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="1:4">
@@ -29463,16 +30448,24 @@
       <c r="B216" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="C216" s="4">
+        <v>36306</v>
+      </c>
+      <c r="D216" s="4">
+        <v>9929</v>
+      </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="C217" s="4">
+        <v>49005</v>
+      </c>
+      <c r="D217" s="4">
+        <v>14535</v>
+      </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="7" t="s">
@@ -29503,7 +30496,7 @@
     <row r="220" spans="1:4">
       <c r="A220" s="2"/>
       <c r="B220" s="1">
-        <f t="shared" ref="B220:B249" si="26">B219+1</f>
+        <f t="shared" ref="B220:B223" si="26">B219+1</f>
         <v>1911</v>
       </c>
       <c r="C220" s="4">
@@ -29605,7 +30598,7 @@
     <row r="228" spans="1:4">
       <c r="A228" s="2"/>
       <c r="B228" s="1">
-        <f t="shared" ref="B228:B249" si="27">B227+1</f>
+        <f t="shared" ref="B228:B231" si="27">B227+1</f>
         <v>1911</v>
       </c>
       <c r="C228" s="4">
@@ -29703,7 +30696,7 @@
     <row r="236" spans="1:4">
       <c r="A236" s="2"/>
       <c r="B236" s="1">
-        <f t="shared" ref="B236:B249" si="28">B235+1</f>
+        <f t="shared" ref="B236:B239" si="28">B235+1</f>
         <v>1911</v>
       </c>
       <c r="C236" s="4"/>
@@ -29793,7 +30786,7 @@
     <row r="244" spans="1:4">
       <c r="A244" s="2"/>
       <c r="B244" s="1">
-        <f t="shared" ref="B244:B249" si="29">B243+1</f>
+        <f t="shared" ref="B244:B247" si="29">B243+1</f>
         <v>1911</v>
       </c>
       <c r="C244" s="4">

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3DC0BA-A2BD-4DC4-817D-F6AD2ADE41A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFE82D-77BF-451D-8077-8261D0DB82AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91965" yWindow="120" windowWidth="22695" windowHeight="22200" activeTab="3" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
+    <workbookView xWindow="75540" yWindow="1335" windowWidth="22695" windowHeight="22200" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="114">
   <si>
     <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1896 по 1909 г. (включительно)", сост. Н. Турчанинов, С.-Петербург, 1910</t>
   </si>
@@ -367,6 +367,21 @@
   </si>
   <si>
     <t>разница:</t>
+  </si>
+  <si>
+    <t>Сведения о крестьянах-переселенцах и ходоках внутри России</t>
+  </si>
+  <si>
+    <t>Число переселенцев + ходаков по губерниям отбытия и (для обратных переселенцев) возвращения</t>
+  </si>
+  <si>
+    <t>Страница "выход":</t>
+  </si>
+  <si>
+    <t>Страница "назначения":</t>
+  </si>
+  <si>
+    <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
   </si>
 </sst>
 </file>
@@ -769,22 +784,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D358E99-8033-4B48-90B0-123183FD84FA}">
-  <dimension ref="B3:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +837,8 @@
   <dimension ref="A1:J991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14421,7 +14462,8 @@
   <dimension ref="A1:J481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20876,8 +20918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{761FB104-E352-4B39-BBB0-990CF0255017}">
   <dimension ref="A1:O545"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29938,8 +29981,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561D72E-8044-419A-9147-776CFA5F2686}">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="O112" sqref="O112"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-yearly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AFE82D-77BF-451D-8077-8261D0DB82AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9DF30AD-3276-4EF4-8271-E02A48146623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75540" yWindow="1335" windowWidth="22695" windowHeight="22200" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
+    <workbookView xWindow="93285" yWindow="870" windowWidth="22695" windowHeight="22200" xr2:uid="{F9E4B496-A029-4FA6-B261-FD896B054B05}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="114">
-  <si>
-    <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1896 по 1909 г. (включительно)", сост. Н. Турчанинов, С.-Петербург, 1910</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="115">
   <si>
     <t>губ</t>
   </si>
@@ -354,9 +351,6 @@
     <t>Холмская</t>
   </si>
   <si>
-    <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1810 по 1914 г. (включительно)", сост. Н. Турчанинов и А. Домрачев, Петроград, 1916</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -382,6 +376,15 @@
   </si>
   <si>
     <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
+  </si>
+  <si>
+    <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1810 по 1914 г. (включительно)", сост. Н. Турчанинов и А. Домрачев, Петроград, 1916, стр. 2-69</t>
+  </si>
+  <si>
+    <t>Издание Переселенческого Управления, "Итоги переселенческого движения за время с 1896 по 1909 г. (включительно)", сост. Н. Турчанинов, С.-Петербург, 1910, стр. 2-69</t>
+  </si>
+  <si>
+    <t>Исправленные опечатки помечены синим цветом</t>
   </si>
 </sst>
 </file>
@@ -784,47 +787,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D358E99-8033-4B48-90B0-123183FD84FA}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -848,21 +856,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>1896</v>
@@ -1046,7 +1054,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>234288</v>
@@ -1073,7 +1081,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>1896</v>
@@ -1257,7 +1265,7 @@
     <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4">
         <v>157876</v>
@@ -1284,7 +1292,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>1896</v>
@@ -1468,7 +1476,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4">
         <v>72737</v>
@@ -1495,7 +1503,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1">
         <v>1896</v>
@@ -1679,7 +1687,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4">
         <v>152491</v>
@@ -1706,7 +1714,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" s="1">
         <v>1896</v>
@@ -1890,7 +1898,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4">
         <v>278086</v>
@@ -1917,7 +1925,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
         <v>1896</v>
@@ -2101,7 +2109,7 @@
     <row r="91" spans="1:10">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4">
         <v>36054</v>
@@ -2128,7 +2136,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B92" s="1">
         <v>1896</v>
@@ -2312,7 +2320,7 @@
     <row r="106" spans="1:10">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4">
         <v>45670</v>
@@ -2339,7 +2347,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B107" s="1">
         <v>1896</v>
@@ -2523,7 +2531,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" s="4">
         <v>328970</v>
@@ -2550,7 +2558,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B122" s="1">
         <v>1896</v>
@@ -2734,7 +2742,7 @@
     <row r="136" spans="1:10">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4">
         <v>167419</v>
@@ -2761,7 +2769,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B137" s="1">
         <v>1896</v>
@@ -2945,7 +2953,7 @@
     <row r="151" spans="1:10">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="4">
         <v>199272</v>
@@ -2972,7 +2980,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152" s="1">
         <v>1896</v>
@@ -3156,7 +3164,7 @@
     <row r="166" spans="1:10">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" s="4">
         <v>182045</v>
@@ -3183,7 +3191,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B167" s="1">
         <v>1896</v>
@@ -3367,7 +3375,7 @@
     <row r="181" spans="1:10">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" s="4">
         <v>61304</v>
@@ -3394,7 +3402,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B182" s="1">
         <v>1896</v>
@@ -3578,7 +3586,7 @@
     <row r="196" spans="1:10">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" s="4">
         <v>49640</v>
@@ -3605,7 +3613,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B197" s="1">
         <v>1896</v>
@@ -3789,7 +3797,7 @@
     <row r="211" spans="1:10">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" s="4">
         <v>35191</v>
@@ -3816,7 +3824,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B212" s="1">
         <v>1896</v>
@@ -4000,7 +4008,7 @@
     <row r="226" spans="1:10">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="4">
         <v>141725</v>
@@ -4027,7 +4035,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B227" s="1">
         <v>1896</v>
@@ -4211,7 +4219,7 @@
     <row r="241" spans="1:10">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" s="4">
         <v>95326</v>
@@ -4238,7 +4246,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B242" s="1">
         <v>1896</v>
@@ -4422,7 +4430,7 @@
     <row r="256" spans="1:10">
       <c r="A256" s="2"/>
       <c r="B256" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" s="4">
         <v>87566</v>
@@ -4449,7 +4457,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B257" s="1">
         <v>1896</v>
@@ -4633,7 +4641,7 @@
     <row r="271" spans="1:10">
       <c r="A271" s="2"/>
       <c r="B271" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" s="4">
         <v>42310</v>
@@ -4660,7 +4668,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B272" s="1">
         <v>1896</v>
@@ -4844,7 +4852,7 @@
     <row r="286" spans="1:10">
       <c r="A286" s="2"/>
       <c r="B286" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" s="4">
         <v>1633</v>
@@ -4871,7 +4879,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B287" s="1">
         <v>1896</v>
@@ -5055,7 +5063,7 @@
     <row r="301" spans="1:10">
       <c r="A301" s="2"/>
       <c r="B301" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" s="4">
         <v>24236</v>
@@ -5082,7 +5090,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B302" s="1">
         <v>1896</v>
@@ -5266,7 +5274,7 @@
     <row r="316" spans="1:10">
       <c r="A316" s="2"/>
       <c r="B316" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" s="4">
         <v>14531</v>
@@ -5293,7 +5301,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B317" s="1">
         <v>1896</v>
@@ -5477,7 +5485,7 @@
     <row r="331" spans="1:10">
       <c r="A331" s="2"/>
       <c r="B331" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" s="4">
         <v>43066</v>
@@ -5504,7 +5512,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B332" s="1">
         <v>1896</v>
@@ -5688,7 +5696,7 @@
     <row r="346" spans="1:10">
       <c r="A346" s="2"/>
       <c r="B346" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" s="4">
         <v>86562</v>
@@ -5715,7 +5723,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B347" s="1">
         <v>1896</v>
@@ -5899,7 +5907,7 @@
     <row r="361" spans="1:10">
       <c r="A361" s="2"/>
       <c r="B361" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361" s="4">
         <v>144017</v>
@@ -5926,7 +5934,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B362" s="1">
         <v>1896</v>
@@ -6110,7 +6118,7 @@
     <row r="376" spans="1:10">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C376" s="4">
         <v>30491</v>
@@ -6137,7 +6145,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B377" s="1">
         <v>1896</v>
@@ -6321,7 +6329,7 @@
     <row r="391" spans="1:10">
       <c r="A391" s="2"/>
       <c r="B391" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C391" s="4">
         <v>17111</v>
@@ -6348,7 +6356,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B392" s="1">
         <v>1896</v>
@@ -6500,7 +6508,7 @@
     <row r="406" spans="1:10">
       <c r="A406" s="2"/>
       <c r="B406" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406" s="4">
         <f>SUM(C395:C405)</f>
@@ -6528,7 +6536,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B407" s="1">
         <v>1896</v>
@@ -6712,7 +6720,7 @@
     <row r="421" spans="1:10">
       <c r="A421" s="2"/>
       <c r="B421" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C421" s="4">
         <v>12770</v>
@@ -6739,7 +6747,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B422" s="1">
         <v>1896</v>
@@ -6923,7 +6931,7 @@
     <row r="436" spans="1:10">
       <c r="A436" s="2"/>
       <c r="B436" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" s="4">
         <v>9633</v>
@@ -6950,7 +6958,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B437" s="1">
         <v>1896</v>
@@ -7132,7 +7140,7 @@
     <row r="451" spans="1:10">
       <c r="A451" s="2"/>
       <c r="B451" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C451" s="4">
         <v>1826</v>
@@ -7159,7 +7167,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B452" s="1">
         <v>1896</v>
@@ -7324,7 +7332,7 @@
     <row r="466" spans="1:10">
       <c r="A466" s="2"/>
       <c r="B466" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C466" s="4">
         <v>70</v>
@@ -7351,7 +7359,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B467" s="1">
         <v>1896</v>
@@ -7510,7 +7518,7 @@
     <row r="481" spans="1:10">
       <c r="A481" s="2"/>
       <c r="B481" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481" s="4">
         <v>564</v>
@@ -7537,7 +7545,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B482" s="1">
         <v>1896</v>
@@ -7681,7 +7689,7 @@
     <row r="496" spans="1:10">
       <c r="A496" s="2"/>
       <c r="B496" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C496" s="4">
         <v>43</v>
@@ -7708,7 +7716,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B497" s="1">
         <v>1896</v>
@@ -7856,7 +7864,7 @@
     <row r="511" spans="1:10">
       <c r="A511" s="2"/>
       <c r="B511" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C511" s="4">
         <v>52</v>
@@ -7883,7 +7891,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B512" s="1">
         <v>1896</v>
@@ -8037,7 +8045,7 @@
     <row r="526" spans="1:10">
       <c r="A526" s="2"/>
       <c r="B526" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C526" s="4">
         <v>67</v>
@@ -8064,7 +8072,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B527" s="1">
         <v>1896</v>
@@ -8208,7 +8216,7 @@
     <row r="541" spans="1:10">
       <c r="A541" s="2"/>
       <c r="B541" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C541" s="4">
         <v>19</v>
@@ -8235,7 +8243,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B542" s="1">
         <v>1896</v>
@@ -8381,7 +8389,7 @@
     <row r="556" spans="1:10">
       <c r="A556" s="2"/>
       <c r="B556" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C556" s="4">
         <v>343</v>
@@ -8408,7 +8416,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B557" s="1">
         <v>1896</v>
@@ -8566,7 +8574,7 @@
     <row r="571" spans="1:10">
       <c r="A571" s="2"/>
       <c r="B571" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C571" s="4">
         <v>737</v>
@@ -8593,7 +8601,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B572" s="1">
         <v>1896</v>
@@ -8777,7 +8785,7 @@
     <row r="586" spans="1:10">
       <c r="A586" s="2"/>
       <c r="B586" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C586" s="4">
         <v>2755808</v>
@@ -8804,7 +8812,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B587" s="1">
         <v>1896</v>
@@ -8980,7 +8988,7 @@
     <row r="601" spans="1:10">
       <c r="A601" s="2"/>
       <c r="B601" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C601" s="4">
         <v>502</v>
@@ -9007,7 +9015,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B602" s="1">
         <v>1896</v>
@@ -9191,7 +9199,7 @@
     <row r="616" spans="1:10">
       <c r="A616" s="2"/>
       <c r="B616" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C616" s="4">
         <v>29152</v>
@@ -9218,7 +9226,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B617" s="1">
         <v>1896</v>
@@ -9402,7 +9410,7 @@
     <row r="631" spans="1:10">
       <c r="A631" s="2"/>
       <c r="B631" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C631" s="4">
         <v>1626</v>
@@ -9429,7 +9437,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B632" s="1">
         <v>1896</v>
@@ -9611,7 +9619,7 @@
     <row r="646" spans="1:10">
       <c r="A646" s="2"/>
       <c r="B646" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C646" s="4">
         <v>3856</v>
@@ -9638,7 +9646,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B647" s="1">
         <v>1896</v>
@@ -9822,7 +9830,7 @@
     <row r="661" spans="1:10">
       <c r="A661" s="2"/>
       <c r="B661" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C661" s="4">
         <v>63130</v>
@@ -9849,7 +9857,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B662" s="1">
         <v>1896</v>
@@ -10033,7 +10041,7 @@
     <row r="676" spans="1:10">
       <c r="A676" s="2"/>
       <c r="B676" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C676" s="4">
         <v>27540</v>
@@ -10060,7 +10068,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B677" s="1">
         <v>1896</v>
@@ -10244,7 +10252,7 @@
     <row r="691" spans="1:10">
       <c r="A691" s="2"/>
       <c r="B691" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C691" s="4">
         <v>41608</v>
@@ -10271,7 +10279,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B692" s="1">
         <v>1896</v>
@@ -10455,7 +10463,7 @@
     <row r="706" spans="1:10">
       <c r="A706" s="2"/>
       <c r="B706" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C706" s="4">
         <v>3773</v>
@@ -10482,7 +10490,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B707" s="1">
         <v>1896</v>
@@ -10666,7 +10674,7 @@
     <row r="721" spans="1:10">
       <c r="A721" s="2"/>
       <c r="B721" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C721" s="4">
         <v>220305</v>
@@ -10693,7 +10701,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B722" s="1">
         <v>1896</v>
@@ -10877,7 +10885,7 @@
     <row r="736" spans="1:10">
       <c r="A736" s="2"/>
       <c r="B736" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C736" s="4">
         <v>153645</v>
@@ -10904,7 +10912,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B737" s="1">
         <v>1896</v>
@@ -11088,7 +11096,7 @@
     <row r="751" spans="1:10">
       <c r="A751" s="2"/>
       <c r="B751" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C751" s="4">
         <v>95742</v>
@@ -11115,7 +11123,7 @@
     </row>
     <row r="752" spans="1:10">
       <c r="A752" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B752" s="1">
         <v>1896</v>
@@ -11299,7 +11307,7 @@
     <row r="766" spans="1:10">
       <c r="A766" s="2"/>
       <c r="B766" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C766" s="4">
         <v>20166</v>
@@ -11326,7 +11334,7 @@
     </row>
     <row r="767" spans="1:10">
       <c r="A767" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B767" s="1">
         <v>1896</v>
@@ -11510,7 +11518,7 @@
     <row r="781" spans="1:10">
       <c r="A781" s="2"/>
       <c r="B781" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C781" s="4">
         <v>90521</v>
@@ -11537,7 +11545,7 @@
     </row>
     <row r="782" spans="1:10">
       <c r="A782" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B782" s="1">
         <v>1896</v>
@@ -11721,7 +11729,7 @@
     <row r="796" spans="1:10">
       <c r="A796" s="2"/>
       <c r="B796" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C796" s="4">
         <v>37718</v>
@@ -11748,7 +11756,7 @@
     </row>
     <row r="797" spans="1:10">
       <c r="A797" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B797" s="1">
         <v>1896</v>
@@ -11932,7 +11940,7 @@
     <row r="811" spans="1:10">
       <c r="A811" s="2"/>
       <c r="B811" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C811" s="4">
         <v>22495</v>
@@ -11959,7 +11967,7 @@
     </row>
     <row r="812" spans="1:10">
       <c r="A812" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B812" s="1">
         <v>1896</v>
@@ -12137,7 +12145,7 @@
     <row r="826" spans="1:10">
       <c r="A826" s="2"/>
       <c r="B826" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C826" s="4">
         <v>3525</v>
@@ -12164,7 +12172,7 @@
     </row>
     <row r="827" spans="1:10">
       <c r="A827" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B827" s="1">
         <v>1896</v>
@@ -12346,7 +12354,7 @@
     <row r="841" spans="1:10">
       <c r="A841" s="2"/>
       <c r="B841" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C841" s="4">
         <v>3422</v>
@@ -12373,7 +12381,7 @@
     </row>
     <row r="842" spans="1:10">
       <c r="A842" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B842" s="1">
         <v>1896</v>
@@ -12557,7 +12565,7 @@
     <row r="856" spans="1:10">
       <c r="A856" s="2"/>
       <c r="B856" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C856" s="4">
         <v>15553</v>
@@ -12584,7 +12592,7 @@
     </row>
     <row r="857" spans="1:10">
       <c r="A857" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B857" s="1">
         <v>1896</v>
@@ -12768,7 +12776,7 @@
     <row r="871" spans="1:10">
       <c r="A871" s="2"/>
       <c r="B871" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C871" s="4">
         <v>3919</v>
@@ -12795,7 +12803,7 @@
     </row>
     <row r="872" spans="1:10">
       <c r="A872" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B872" s="1">
         <v>1896</v>
@@ -12973,7 +12981,7 @@
     <row r="886" spans="1:10">
       <c r="A886" s="2"/>
       <c r="B886" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C886" s="4">
         <v>4078</v>
@@ -13000,7 +13008,7 @@
     </row>
     <row r="887" spans="1:10">
       <c r="A887" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B887" s="1">
         <v>1896</v>
@@ -13184,7 +13192,7 @@
     <row r="901" spans="1:10">
       <c r="A901" s="2"/>
       <c r="B901" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C901" s="6">
         <v>16619</v>
@@ -13211,7 +13219,7 @@
     </row>
     <row r="902" spans="1:10">
       <c r="A902" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B902" s="1">
         <v>1896</v>
@@ -13395,7 +13403,7 @@
     <row r="916" spans="1:10">
       <c r="A916" s="2"/>
       <c r="B916" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C916" s="4">
         <v>6971</v>
@@ -13422,7 +13430,7 @@
     </row>
     <row r="917" spans="1:10">
       <c r="A917" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B917" s="1">
         <v>1896</v>
@@ -13606,7 +13614,7 @@
     <row r="931" spans="1:10">
       <c r="A931" s="2"/>
       <c r="B931" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C931" s="4">
         <v>3108</v>
@@ -13633,7 +13641,7 @@
     </row>
     <row r="932" spans="1:10">
       <c r="A932" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B932" s="1">
         <v>1896</v>
@@ -13817,7 +13825,7 @@
     <row r="946" spans="1:10">
       <c r="A946" s="2"/>
       <c r="B946" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C946" s="4">
         <v>868964</v>
@@ -13844,7 +13852,7 @@
     </row>
     <row r="947" spans="1:10">
       <c r="A947" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B947" s="1">
         <v>1896</v>
@@ -14024,7 +14032,7 @@
     <row r="961" spans="1:10">
       <c r="A961" s="2"/>
       <c r="B961" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C961" s="4">
         <v>1132</v>
@@ -14051,7 +14059,7 @@
     </row>
     <row r="962" spans="1:10">
       <c r="A962" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B962" s="1">
         <v>1896</v>
@@ -14229,7 +14237,7 @@
     <row r="976" spans="1:10">
       <c r="A976" s="2"/>
       <c r="B976" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C976" s="4">
         <v>3494</v>
@@ -14256,7 +14264,7 @@
     </row>
     <row r="977" spans="1:10">
       <c r="A977" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B977" s="1">
         <v>1896</v>
@@ -14426,7 +14434,7 @@
     </row>
     <row r="991" spans="1:10">
       <c r="B991" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C991" s="4">
         <v>3629398</v>
@@ -14473,21 +14481,21 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
         <v>1896</v>
@@ -14671,7 +14679,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="4">
         <v>214969</v>
@@ -14698,7 +14706,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B17" s="1">
         <v>1896</v>
@@ -14851,7 +14859,7 @@
     <row r="31" spans="1:10">
       <c r="A31" s="2"/>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4">
         <v>19716</v>
@@ -14878,7 +14886,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1">
         <v>1896</v>
@@ -15062,7 +15070,7 @@
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="4">
         <v>589734</v>
@@ -15089,7 +15097,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="1">
         <v>1896</v>
@@ -15273,7 +15281,7 @@
     <row r="61" spans="1:10">
       <c r="A61" s="2"/>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="4">
         <v>85856</v>
@@ -15300,7 +15308,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
         <v>1896</v>
@@ -15480,7 +15488,7 @@
     <row r="76" spans="1:10">
       <c r="A76" s="2"/>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C76" s="4">
         <v>19273</v>
@@ -15507,7 +15515,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>1896</v>
@@ -15651,7 +15659,7 @@
     <row r="91" spans="1:10">
       <c r="A91" s="2"/>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C91" s="4">
         <v>11257</v>
@@ -15678,7 +15686,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="1">
         <v>1896</v>
@@ -15824,7 +15832,7 @@
     <row r="106" spans="1:10">
       <c r="A106" s="2"/>
       <c r="B106" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C106" s="4">
         <v>1569</v>
@@ -15851,7 +15859,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B107" s="1">
         <v>1896</v>
@@ -16005,7 +16013,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C121" s="4">
         <v>390</v>
@@ -16032,7 +16040,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B122" s="1">
         <v>1896</v>
@@ -16216,7 +16224,7 @@
     <row r="136" spans="1:10">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C136" s="4">
         <v>942764</v>
@@ -16243,7 +16251,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B137" s="1">
         <v>1896</v>
@@ -16427,7 +16435,7 @@
     <row r="151" spans="1:10">
       <c r="A151" s="2"/>
       <c r="B151" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="4">
         <v>258818</v>
@@ -16454,7 +16462,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B152" s="1">
         <v>1896</v>
@@ -16638,7 +16646,7 @@
     <row r="166" spans="1:10">
       <c r="A166" s="2"/>
       <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" s="4">
         <v>445487</v>
@@ -16665,7 +16673,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B167" s="1">
         <v>1896</v>
@@ -16849,7 +16857,7 @@
     <row r="181" spans="1:10">
       <c r="A181" s="2"/>
       <c r="B181" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C181" s="4">
         <v>1033120</v>
@@ -16876,7 +16884,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B182" s="1">
         <v>1896</v>
@@ -17020,7 +17028,7 @@
     <row r="196" spans="1:10">
       <c r="A196" s="2"/>
       <c r="B196" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C196" s="4">
         <v>23653</v>
@@ -17047,7 +17055,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B197" s="1">
         <v>1896</v>
@@ -17231,7 +17239,7 @@
     <row r="211" spans="1:10">
       <c r="A211" s="2"/>
       <c r="B211" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C211" s="4">
         <v>1502260</v>
@@ -17258,7 +17266,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B212" s="1">
         <v>1896</v>
@@ -17442,7 +17450,7 @@
     <row r="226" spans="1:10">
       <c r="A226" s="2"/>
       <c r="B226" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C226" s="4">
         <v>379001</v>
@@ -17469,7 +17477,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B227" s="1">
         <v>1896</v>
@@ -17653,7 +17661,7 @@
     <row r="241" spans="1:10">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C241" s="4">
         <v>104091</v>
@@ -17680,7 +17688,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B242" s="1">
         <v>1896</v>
@@ -17864,7 +17872,7 @@
     <row r="256" spans="1:10">
       <c r="A256" s="2"/>
       <c r="B256" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" s="4">
         <v>2244170</v>
@@ -17891,7 +17899,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B257" s="1">
         <v>1896</v>
@@ -18075,7 +18083,7 @@
     <row r="271" spans="1:10">
       <c r="A271" s="2"/>
       <c r="B271" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C271" s="4">
         <v>3186934</v>
@@ -18102,7 +18110,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B272" s="1">
         <v>1896</v>
@@ -18280,7 +18288,7 @@
     <row r="286" spans="1:10">
       <c r="A286" s="2"/>
       <c r="B286" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" s="4">
         <v>13279</v>
@@ -18307,7 +18315,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B287" s="1">
         <v>1896</v>
@@ -18491,7 +18499,7 @@
     <row r="301" spans="1:10">
       <c r="A301" s="2"/>
       <c r="B301" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C301" s="4">
         <v>96770</v>
@@ -18518,7 +18526,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B302" s="1">
         <v>1896</v>
@@ -18702,7 +18710,7 @@
     <row r="316" spans="1:10">
       <c r="A316" s="2"/>
       <c r="B316" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C316" s="4">
         <v>185104</v>
@@ -18729,7 +18737,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B317" s="1">
         <v>1896</v>
@@ -18893,7 +18901,7 @@
     <row r="331" spans="1:10">
       <c r="A331" s="2"/>
       <c r="B331" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C331" s="4">
         <v>129</v>
@@ -18920,7 +18928,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B332" s="1">
         <v>1896</v>
@@ -19104,7 +19112,7 @@
     <row r="346" spans="1:10">
       <c r="A346" s="2"/>
       <c r="B346" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C346" s="4">
         <v>295282</v>
@@ -19131,7 +19139,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B347" s="1">
         <v>1896</v>
@@ -19315,7 +19323,7 @@
     <row r="361" spans="1:10">
       <c r="A361" s="2"/>
       <c r="B361" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C361" s="4">
         <v>3482216</v>
@@ -19342,7 +19350,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B362" s="1">
         <v>1896</v>
@@ -19526,7 +19534,7 @@
     <row r="376" spans="1:10">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C376" s="4">
         <v>86428</v>
@@ -19553,7 +19561,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B377" s="1">
         <v>1896</v>
@@ -19717,7 +19725,7 @@
     <row r="391" spans="1:10">
       <c r="A391" s="2"/>
       <c r="B391" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C391" s="4">
         <v>29951</v>
@@ -19744,7 +19752,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B392" s="1">
         <v>1896</v>
@@ -19899,7 +19907,7 @@
     <row r="406" spans="1:10">
       <c r="A406" s="2"/>
       <c r="B406" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C406" s="4">
         <v>12699</v>
@@ -19926,7 +19934,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B407" s="1">
         <v>1896</v>
@@ -20098,7 +20106,7 @@
     <row r="421" spans="1:10">
       <c r="A421" s="2"/>
       <c r="B421" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C421" s="4">
         <v>8256</v>
@@ -20125,7 +20133,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B422" s="1">
         <v>1896</v>
@@ -20309,7 +20317,7 @@
     <row r="436" spans="1:10">
       <c r="A436" s="2"/>
       <c r="B436" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C436" s="4">
         <v>137334</v>
@@ -20336,7 +20344,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B437" s="1">
         <v>1896</v>
@@ -20492,7 +20500,7 @@
     <row r="451" spans="1:10">
       <c r="A451" s="2"/>
       <c r="B451" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C451" s="4"/>
       <c r="D451" s="4">
@@ -20517,7 +20525,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B452" s="1">
         <v>1896</v>
@@ -20687,7 +20695,7 @@
     <row r="466" spans="1:10">
       <c r="A466" s="2"/>
       <c r="B466" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C466" s="4">
         <v>9848</v>
@@ -20714,7 +20722,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B467" s="1">
         <v>1896</v>
@@ -20884,7 +20892,7 @@
     </row>
     <row r="481" spans="2:10">
       <c r="B481" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C481" s="4">
         <v>3629398</v>
@@ -20931,24 +20939,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4">
         <v>234288</v>
@@ -21024,7 +21032,7 @@
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4">
         <v>45407</v>
@@ -21052,7 +21060,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>279695</v>
@@ -21079,10 +21087,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4">
         <v>157876</v>
@@ -21158,7 +21166,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4">
         <v>63026</v>
@@ -21186,7 +21194,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4">
         <v>220902</v>
@@ -21213,10 +21221,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4">
         <v>72737</v>
@@ -21292,7 +21300,7 @@
     <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4">
         <v>51068</v>
@@ -21320,7 +21328,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4">
         <v>123805</v>
@@ -21347,10 +21355,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="4">
         <v>152491</v>
@@ -21426,7 +21434,7 @@
     <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4">
         <v>36750</v>
@@ -21454,7 +21462,7 @@
     <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4">
         <v>189241</v>
@@ -21481,10 +21489,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4">
         <v>278086</v>
@@ -21560,7 +21568,7 @@
     <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4">
         <v>56158</v>
@@ -21588,7 +21596,7 @@
     <row r="41" spans="1:10">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4">
         <v>334244</v>
@@ -21615,10 +21623,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4">
         <v>36054</v>
@@ -21694,7 +21702,7 @@
     <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4">
         <v>10353</v>
@@ -21722,7 +21730,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4">
         <v>46407</v>
@@ -21749,10 +21757,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4">
         <v>45670</v>
@@ -21828,7 +21836,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4">
         <v>16480</v>
@@ -21856,7 +21864,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4">
         <v>62150</v>
@@ -21883,10 +21891,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="4">
         <v>328970</v>
@@ -21962,7 +21970,7 @@
     <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="4">
         <v>111989</v>
@@ -21990,7 +21998,7 @@
     <row r="65" spans="1:10">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4">
         <v>440959</v>
@@ -22017,10 +22025,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="4">
         <v>167419</v>
@@ -22096,7 +22104,7 @@
     <row r="72" spans="1:10">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="4">
         <v>87932</v>
@@ -22124,7 +22132,7 @@
     <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4">
         <v>255351</v>
@@ -22151,10 +22159,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="4">
         <v>199272</v>
@@ -22230,7 +22238,7 @@
     <row r="80" spans="1:10">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="4">
         <v>65641</v>
@@ -22258,7 +22266,7 @@
     <row r="81" spans="1:10">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4">
         <v>264913</v>
@@ -22285,10 +22293,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="4">
         <v>182045</v>
@@ -22364,7 +22372,7 @@
     <row r="88" spans="1:10">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="4">
         <v>54770</v>
@@ -22392,7 +22400,7 @@
     <row r="89" spans="1:10">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="4">
         <v>236815</v>
@@ -22419,10 +22427,10 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="4">
         <v>61304</v>
@@ -22498,7 +22506,7 @@
     <row r="96" spans="1:10">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="4">
         <v>39560</v>
@@ -22526,7 +22534,7 @@
     <row r="97" spans="1:15">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" s="4">
         <v>100864</v>
@@ -22553,10 +22561,10 @@
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="4">
         <v>49640</v>
@@ -22632,7 +22640,7 @@
     <row r="104" spans="1:15">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4">
         <v>26780</v>
@@ -22660,7 +22668,7 @@
     <row r="105" spans="1:15">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="4">
         <v>76420</v>
@@ -22687,10 +22695,10 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="4">
         <v>35191</v>
@@ -22766,7 +22774,7 @@
     <row r="112" spans="1:15">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="4">
         <v>29392</v>
@@ -22791,13 +22799,13 @@
         <v>0</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M112" s="6">
         <v>16953</v>
       </c>
       <c r="N112" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O112" s="6">
         <f>D112-M112</f>
@@ -22807,7 +22815,7 @@
     <row r="113" spans="1:15">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="4">
         <v>64583</v>
@@ -22832,13 +22840,13 @@
         <v>0</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M113" s="6">
         <v>29064</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O113" s="6">
         <f>D113-M113</f>
@@ -22847,10 +22855,10 @@
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="4">
         <v>141725</v>
@@ -22926,7 +22934,7 @@
     <row r="120" spans="1:15">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" s="4">
         <v>115480</v>
@@ -22954,7 +22962,7 @@
     <row r="121" spans="1:15">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121" s="4">
         <v>257205</v>
@@ -22981,10 +22989,10 @@
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122" s="4">
         <v>95326</v>
@@ -23060,7 +23068,7 @@
     <row r="128" spans="1:15">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="4">
         <v>100133</v>
@@ -23088,7 +23096,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129" s="4">
         <v>195459</v>
@@ -23115,10 +23123,10 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="4">
         <v>87566</v>
@@ -23194,7 +23202,7 @@
     <row r="136" spans="1:10">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136" s="4">
         <v>60159</v>
@@ -23222,7 +23230,7 @@
     <row r="137" spans="1:10">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C137" s="4">
         <v>147725</v>
@@ -23249,10 +23257,10 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="4">
         <v>42310</v>
@@ -23328,7 +23336,7 @@
     <row r="144" spans="1:10">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C144" s="4">
         <v>23774</v>
@@ -23356,7 +23364,7 @@
     <row r="145" spans="1:10">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C145" s="4">
         <v>66084</v>
@@ -23383,10 +23391,10 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146" s="4">
         <v>1633</v>
@@ -23462,7 +23470,7 @@
     <row r="152" spans="1:10">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C152" s="4">
         <v>1329</v>
@@ -23490,7 +23498,7 @@
     <row r="153" spans="1:10">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C153" s="4">
         <v>2962</v>
@@ -23517,10 +23525,10 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C154" s="4">
         <v>24236</v>
@@ -23596,7 +23604,7 @@
     <row r="160" spans="1:10">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" s="4">
         <v>34953</v>
@@ -23624,7 +23632,7 @@
     <row r="161" spans="1:10">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C161" s="4">
         <v>59189</v>
@@ -23651,10 +23659,10 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C162" s="4">
         <v>14531</v>
@@ -23730,7 +23738,7 @@
     <row r="168" spans="1:10">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C168" s="4">
         <v>5278</v>
@@ -23758,7 +23766,7 @@
     <row r="169" spans="1:10">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C169" s="4">
         <v>19809</v>
@@ -23785,10 +23793,10 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C170" s="4">
         <v>43066</v>
@@ -23864,7 +23872,7 @@
     <row r="176" spans="1:10">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C176" s="4">
         <v>35076</v>
@@ -23892,7 +23900,7 @@
     <row r="177" spans="1:10">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C177" s="4">
         <v>78142</v>
@@ -23919,10 +23927,10 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" s="4">
         <v>86562</v>
@@ -23998,7 +24006,7 @@
     <row r="184" spans="1:10">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C184" s="4">
         <v>39820</v>
@@ -24026,7 +24034,7 @@
     <row r="185" spans="1:10">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C185" s="4">
         <v>126382</v>
@@ -24053,10 +24061,10 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186" s="4">
         <v>144017</v>
@@ -24132,7 +24140,7 @@
     <row r="192" spans="1:10">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C192" s="4">
         <v>47714</v>
@@ -24160,7 +24168,7 @@
     <row r="193" spans="1:10">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C193" s="4">
         <v>191731</v>
@@ -24187,10 +24195,10 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C194" s="4">
         <v>30491</v>
@@ -24266,7 +24274,7 @@
     <row r="200" spans="1:10">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C200" s="4">
         <v>34287</v>
@@ -24294,7 +24302,7 @@
     <row r="201" spans="1:10">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C201" s="4">
         <v>64778</v>
@@ -24321,10 +24329,10 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C202" s="4">
         <v>17111</v>
@@ -24400,7 +24408,7 @@
     <row r="208" spans="1:10">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C208" s="4">
         <v>16199</v>
@@ -24428,7 +24436,7 @@
     <row r="209" spans="1:10">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C209" s="4">
         <v>33310</v>
@@ -24455,10 +24463,10 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C210" s="4">
         <v>67</v>
@@ -24473,7 +24481,7 @@
         <v>1910</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D211" s="4">
         <v>1</v>
@@ -24534,7 +24542,7 @@
     <row r="216" spans="1:10">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" s="4">
         <v>565</v>
@@ -24562,7 +24570,7 @@
     <row r="217" spans="1:10">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C217" s="4">
         <v>632</v>
@@ -24589,10 +24597,10 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C218" s="4">
         <v>12770</v>
@@ -24668,7 +24676,7 @@
     <row r="224" spans="1:10">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C224" s="4">
         <v>28041</v>
@@ -24696,7 +24704,7 @@
     <row r="225" spans="1:10">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C225" s="4">
         <v>40811</v>
@@ -24723,10 +24731,10 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C226" s="4">
         <v>9633</v>
@@ -24802,7 +24810,7 @@
     <row r="232" spans="1:10">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C232" s="4">
         <v>7182</v>
@@ -24830,7 +24838,7 @@
     <row r="233" spans="1:10">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C233" s="4">
         <v>16815</v>
@@ -24857,10 +24865,10 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C234" s="4">
         <v>1826</v>
@@ -24936,7 +24944,7 @@
     <row r="240" spans="1:10">
       <c r="A240" s="2"/>
       <c r="B240" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C240" s="4">
         <v>1487</v>
@@ -24964,7 +24972,7 @@
     <row r="241" spans="1:10">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C241" s="4">
         <v>3313</v>
@@ -24991,10 +24999,10 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C242" s="4">
         <v>70</v>
@@ -25064,7 +25072,7 @@
     <row r="248" spans="1:10">
       <c r="A248" s="2"/>
       <c r="B248" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C248" s="4">
         <v>31</v>
@@ -25092,7 +25100,7 @@
     <row r="249" spans="1:10">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C249" s="4">
         <v>101</v>
@@ -25119,10 +25127,10 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C250" s="4">
         <v>564</v>
@@ -25198,7 +25206,7 @@
     <row r="256" spans="1:10">
       <c r="A256" s="2"/>
       <c r="B256" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C256" s="4">
         <v>94</v>
@@ -25226,7 +25234,7 @@
     <row r="257" spans="1:10">
       <c r="A257" s="2"/>
       <c r="B257" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C257" s="4">
         <v>658</v>
@@ -25253,10 +25261,10 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C258" s="4">
         <v>43</v>
@@ -25326,7 +25334,7 @@
     <row r="264" spans="1:10">
       <c r="A264" s="2"/>
       <c r="B264" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C264" s="4">
         <v>33</v>
@@ -25354,7 +25362,7 @@
     <row r="265" spans="1:10">
       <c r="A265" s="2"/>
       <c r="B265" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C265" s="4">
         <v>76</v>
@@ -25381,10 +25389,10 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C266" s="4">
         <v>52</v>
@@ -25443,7 +25451,7 @@
     <row r="272" spans="1:10">
       <c r="A272" s="2"/>
       <c r="B272" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C272" s="4">
         <v>6</v>
@@ -25471,7 +25479,7 @@
     <row r="273" spans="1:10">
       <c r="A273" s="2"/>
       <c r="B273" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C273" s="4">
         <v>58</v>
@@ -25498,10 +25506,10 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C274" s="4">
         <v>67</v>
@@ -25567,7 +25575,7 @@
     <row r="280" spans="1:10">
       <c r="A280" s="2"/>
       <c r="B280" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C280" s="4">
         <v>4</v>
@@ -25595,7 +25603,7 @@
     <row r="281" spans="1:10">
       <c r="A281" s="2"/>
       <c r="B281" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C281" s="4">
         <v>71</v>
@@ -25622,10 +25630,10 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C282" s="4">
         <v>19</v>
@@ -25691,7 +25699,7 @@
     <row r="288" spans="1:10">
       <c r="A288" s="2"/>
       <c r="B288" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C288" s="4">
         <v>25</v>
@@ -25719,7 +25727,7 @@
     <row r="289" spans="1:10">
       <c r="A289" s="2"/>
       <c r="B289" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C289" s="4">
         <v>44</v>
@@ -25746,10 +25754,10 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
@@ -25803,7 +25811,7 @@
     <row r="296" spans="1:10">
       <c r="A296" s="2"/>
       <c r="B296" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C296" s="4"/>
       <c r="D296" s="4">
@@ -25829,7 +25837,7 @@
     <row r="297" spans="1:10">
       <c r="A297" s="2"/>
       <c r="B297" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C297" s="4"/>
       <c r="D297" s="4">
@@ -25854,10 +25862,10 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C298" s="4">
         <v>343</v>
@@ -25933,7 +25941,7 @@
     <row r="304" spans="1:10">
       <c r="A304" s="2"/>
       <c r="B304" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C304" s="4">
         <v>71</v>
@@ -25961,7 +25969,7 @@
     <row r="305" spans="1:10">
       <c r="A305" s="2"/>
       <c r="B305" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C305" s="4">
         <v>414</v>
@@ -25988,10 +25996,10 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C306" s="4">
         <v>737</v>
@@ -26042,7 +26050,7 @@
         <v>5</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="311" spans="1:10">
@@ -26058,7 +26066,7 @@
     <row r="312" spans="1:10">
       <c r="A312" s="2"/>
       <c r="B312" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C312" s="4">
         <v>115</v>
@@ -26086,7 +26094,7 @@
     <row r="313" spans="1:10">
       <c r="A313" s="2"/>
       <c r="B313" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C313" s="4">
         <v>852</v>
@@ -26113,10 +26121,10 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C314" s="4">
         <v>2755808</v>
@@ -26192,7 +26200,7 @@
     <row r="320" spans="1:10">
       <c r="A320" s="2"/>
       <c r="B320" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C320" s="4">
         <v>1247162</v>
@@ -26220,7 +26228,7 @@
     <row r="321" spans="1:10">
       <c r="A321" s="2"/>
       <c r="B321" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C321" s="4">
         <v>4002970</v>
@@ -26247,10 +26255,10 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C322" s="4">
         <v>502</v>
@@ -26326,7 +26334,7 @@
     <row r="328" spans="1:10">
       <c r="A328" s="2"/>
       <c r="B328" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C328" s="4">
         <v>89</v>
@@ -26354,7 +26362,7 @@
     <row r="329" spans="1:10">
       <c r="A329" s="2"/>
       <c r="B329" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C329" s="4">
         <v>591</v>
@@ -26381,10 +26389,10 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C330" s="4">
         <v>29152</v>
@@ -26460,7 +26468,7 @@
     <row r="336" spans="1:10">
       <c r="A336" s="2"/>
       <c r="B336" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C336" s="4">
         <v>3838</v>
@@ -26488,7 +26496,7 @@
     <row r="337" spans="1:10">
       <c r="A337" s="2"/>
       <c r="B337" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C337" s="4">
         <v>32990</v>
@@ -26515,10 +26523,10 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C338" s="4">
         <v>1626</v>
@@ -26594,7 +26602,7 @@
     <row r="344" spans="1:10">
       <c r="A344" s="2"/>
       <c r="B344" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C344" s="4">
         <v>613</v>
@@ -26622,7 +26630,7 @@
     <row r="345" spans="1:10">
       <c r="A345" s="2"/>
       <c r="B345" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C345" s="4">
         <v>2239</v>
@@ -26649,10 +26657,10 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C346" s="4">
         <v>3856</v>
@@ -26728,7 +26736,7 @@
     <row r="352" spans="1:10">
       <c r="A352" s="2"/>
       <c r="B352" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C352" s="4">
         <v>1588</v>
@@ -26756,7 +26764,7 @@
     <row r="353" spans="1:10">
       <c r="A353" s="2"/>
       <c r="B353" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C353" s="4">
         <v>5444</v>
@@ -26783,10 +26791,10 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C354" s="4">
         <v>63130</v>
@@ -26862,7 +26870,7 @@
     <row r="360" spans="1:10">
       <c r="A360" s="2"/>
       <c r="B360" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C360" s="4">
         <v>16955</v>
@@ -26890,7 +26898,7 @@
     <row r="361" spans="1:10">
       <c r="A361" s="2"/>
       <c r="B361" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C361" s="4">
         <v>80085</v>
@@ -26917,10 +26925,10 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C362" s="4">
         <v>27540</v>
@@ -26996,7 +27004,7 @@
     <row r="368" spans="1:10">
       <c r="A368" s="2"/>
       <c r="B368" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C368" s="4">
         <v>7956</v>
@@ -27024,7 +27032,7 @@
     <row r="369" spans="1:10">
       <c r="A369" s="2"/>
       <c r="B369" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C369" s="4">
         <v>35496</v>
@@ -27051,10 +27059,10 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C370" s="4">
         <v>41608</v>
@@ -27130,7 +27138,7 @@
     <row r="376" spans="1:10">
       <c r="A376" s="2"/>
       <c r="B376" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C376" s="4">
         <v>5466</v>
@@ -27158,7 +27166,7 @@
     <row r="377" spans="1:10">
       <c r="A377" s="2"/>
       <c r="B377" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C377" s="4">
         <v>47074</v>
@@ -27185,10 +27193,10 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C378" s="4">
         <v>3773</v>
@@ -27264,7 +27272,7 @@
     <row r="384" spans="1:10">
       <c r="A384" s="2"/>
       <c r="B384" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C384" s="4">
         <v>536</v>
@@ -27292,7 +27300,7 @@
     <row r="385" spans="1:10">
       <c r="A385" s="2"/>
       <c r="B385" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C385" s="4">
         <v>4309</v>
@@ -27319,10 +27327,10 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C386" s="4">
         <v>220305</v>
@@ -27398,7 +27406,7 @@
     <row r="392" spans="1:10">
       <c r="A392" s="2"/>
       <c r="B392" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C392" s="4">
         <v>50384</v>
@@ -27426,7 +27434,7 @@
     <row r="393" spans="1:10">
       <c r="A393" s="2"/>
       <c r="B393" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C393" s="4">
         <v>270689</v>
@@ -27453,10 +27461,10 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C394" s="4">
         <v>153645</v>
@@ -27532,7 +27540,7 @@
     <row r="400" spans="1:10">
       <c r="A400" s="2"/>
       <c r="B400" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C400" s="4">
         <v>25168</v>
@@ -27560,7 +27568,7 @@
     <row r="401" spans="1:10">
       <c r="A401" s="2"/>
       <c r="B401" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C401" s="4">
         <v>178813</v>
@@ -27587,10 +27595,10 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C402" s="4">
         <v>95742</v>
@@ -27666,7 +27674,7 @@
     <row r="408" spans="1:10">
       <c r="A408" s="2"/>
       <c r="B408" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C408" s="4">
         <v>17971</v>
@@ -27694,7 +27702,7 @@
     <row r="409" spans="1:10">
       <c r="A409" s="2"/>
       <c r="B409" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C409" s="4">
         <v>113713</v>
@@ -27721,10 +27729,10 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C410" s="4">
         <v>20166</v>
@@ -27800,7 +27808,7 @@
     <row r="416" spans="1:10">
       <c r="A416" s="2"/>
       <c r="B416" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C416" s="4">
         <v>4999</v>
@@ -27828,7 +27836,7 @@
     <row r="417" spans="1:10">
       <c r="A417" s="2"/>
       <c r="B417" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C417" s="4">
         <v>25165</v>
@@ -27855,10 +27863,10 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C418" s="4">
         <v>90521</v>
@@ -27934,7 +27942,7 @@
     <row r="424" spans="1:10">
       <c r="A424" s="2"/>
       <c r="B424" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C424" s="4">
         <v>74240</v>
@@ -27962,7 +27970,7 @@
     <row r="425" spans="1:10">
       <c r="A425" s="2"/>
       <c r="B425" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C425" s="4">
         <v>164761</v>
@@ -27989,10 +27997,10 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C426" s="4">
         <v>37718</v>
@@ -28068,7 +28076,7 @@
     <row r="432" spans="1:10">
       <c r="A432" s="2"/>
       <c r="B432" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C432" s="4">
         <v>22082</v>
@@ -28096,7 +28104,7 @@
     <row r="433" spans="1:10">
       <c r="A433" s="2"/>
       <c r="B433" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C433" s="4">
         <v>59800</v>
@@ -28123,10 +28131,10 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C434" s="4">
         <v>22495</v>
@@ -28202,7 +28210,7 @@
     <row r="440" spans="1:10">
       <c r="A440" s="2"/>
       <c r="B440" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C440" s="4">
         <v>5953</v>
@@ -28230,7 +28238,7 @@
     <row r="441" spans="1:10">
       <c r="A441" s="2"/>
       <c r="B441" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C441" s="4">
         <v>28448</v>
@@ -28257,10 +28265,10 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C442" s="4">
         <v>3525</v>
@@ -28336,7 +28344,7 @@
     <row r="448" spans="1:10">
       <c r="A448" s="2"/>
       <c r="B448" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C448" s="4">
         <v>1987</v>
@@ -28364,7 +28372,7 @@
     <row r="449" spans="1:10">
       <c r="A449" s="2"/>
       <c r="B449" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C449" s="4">
         <v>5512</v>
@@ -28391,10 +28399,10 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C450" s="4">
         <v>3422</v>
@@ -28470,7 +28478,7 @@
     <row r="456" spans="1:10">
       <c r="A456" s="2"/>
       <c r="B456" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C456" s="4">
         <v>440</v>
@@ -28498,7 +28506,7 @@
     <row r="457" spans="1:10">
       <c r="A457" s="2"/>
       <c r="B457" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C457" s="4">
         <v>3862</v>
@@ -28525,10 +28533,10 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C458" s="4">
         <v>15553</v>
@@ -28604,7 +28612,7 @@
     <row r="464" spans="1:10">
       <c r="A464" s="2"/>
       <c r="B464" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C464" s="4">
         <v>2985</v>
@@ -28632,7 +28640,7 @@
     <row r="465" spans="1:10">
       <c r="A465" s="2"/>
       <c r="B465" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C465" s="4">
         <v>18538</v>
@@ -28659,10 +28667,10 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C466" s="4">
         <v>3919</v>
@@ -28738,7 +28746,7 @@
     <row r="472" spans="1:10">
       <c r="A472" s="2"/>
       <c r="B472" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C472" s="4">
         <v>964</v>
@@ -28766,7 +28774,7 @@
     <row r="473" spans="1:10">
       <c r="A473" s="2"/>
       <c r="B473" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C473" s="4">
         <v>4883</v>
@@ -28793,10 +28801,10 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C474" s="4">
         <v>4078</v>
@@ -28872,7 +28880,7 @@
     <row r="480" spans="1:10">
       <c r="A480" s="2"/>
       <c r="B480" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C480" s="4">
         <v>1021</v>
@@ -28900,7 +28908,7 @@
     <row r="481" spans="1:10">
       <c r="A481" s="2"/>
       <c r="B481" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C481" s="4">
         <v>5099</v>
@@ -28927,10 +28935,10 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C482" s="4">
         <v>16609</v>
@@ -29006,7 +29014,7 @@
     <row r="488" spans="1:10">
       <c r="A488" s="2"/>
       <c r="B488" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C488" s="4">
         <v>3271</v>
@@ -29034,7 +29042,7 @@
     <row r="489" spans="1:10">
       <c r="A489" s="2"/>
       <c r="B489" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C489" s="4">
         <v>19880</v>
@@ -29061,10 +29069,10 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
@@ -29122,7 +29130,7 @@
     <row r="496" spans="1:10">
       <c r="A496" s="2"/>
       <c r="B496" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C496" s="4">
         <v>770</v>
@@ -29150,7 +29158,7 @@
     <row r="497" spans="1:10">
       <c r="A497" s="2"/>
       <c r="B497" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C497" s="4">
         <v>770</v>
@@ -29177,10 +29185,10 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C498" s="4">
         <v>6971</v>
@@ -29256,7 +29264,7 @@
     <row r="504" spans="1:10">
       <c r="A504" s="2"/>
       <c r="B504" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C504" s="4">
         <v>801</v>
@@ -29284,7 +29292,7 @@
     <row r="505" spans="1:10">
       <c r="A505" s="2"/>
       <c r="B505" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C505" s="4">
         <v>7772</v>
@@ -29311,10 +29319,10 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C506" s="4">
         <v>3108</v>
@@ -29390,7 +29398,7 @@
     <row r="512" spans="1:10">
       <c r="A512" s="2"/>
       <c r="B512" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C512" s="4">
         <v>2714</v>
@@ -29418,7 +29426,7 @@
     <row r="513" spans="1:10">
       <c r="A513" s="2"/>
       <c r="B513" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C513" s="4">
         <v>5822</v>
@@ -29445,10 +29453,10 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B514" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C514" s="4">
         <v>868964</v>
@@ -29524,7 +29532,7 @@
     <row r="520" spans="1:10">
       <c r="A520" s="2"/>
       <c r="B520" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C520" s="4">
         <v>252795</v>
@@ -29552,7 +29560,7 @@
     <row r="521" spans="1:10">
       <c r="A521" s="2"/>
       <c r="B521" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C521" s="4">
         <v>1121759</v>
@@ -29579,10 +29587,10 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C522" s="4">
         <v>1132</v>
@@ -29658,7 +29666,7 @@
     <row r="528" spans="1:10">
       <c r="A528" s="2"/>
       <c r="B528" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C528" s="4">
         <v>11238</v>
@@ -29686,7 +29694,7 @@
     <row r="529" spans="1:10">
       <c r="A529" s="2"/>
       <c r="B529" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C529" s="4">
         <v>12370</v>
@@ -29713,10 +29721,10 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C530" s="4">
         <v>3494</v>
@@ -29792,7 +29800,7 @@
     <row r="536" spans="1:10">
       <c r="A536" s="2"/>
       <c r="B536" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C536" s="4">
         <v>1063</v>
@@ -29820,7 +29828,7 @@
     <row r="537" spans="1:10">
       <c r="A537" s="2"/>
       <c r="B537" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C537" s="4">
         <v>4557</v>
@@ -29847,10 +29855,10 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C538" s="4">
         <v>3629398</v>
@@ -29920,7 +29928,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="B544" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C544" s="4">
         <v>1512258</v>
@@ -29947,7 +29955,7 @@
     </row>
     <row r="545" spans="2:10">
       <c r="B545" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C545" s="4">
         <v>5141656</v>
@@ -29982,8 +29990,8 @@
   <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M21" sqref="M21"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D124" sqref="D124:D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -29993,24 +30001,24 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4">
         <v>214969</v>
@@ -30086,7 +30094,7 @@
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4">
         <v>117027</v>
@@ -30114,7 +30122,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="4">
         <v>331996</v>
@@ -30141,10 +30149,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4">
         <v>19716</v>
@@ -30220,7 +30228,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="4">
         <v>47413</v>
@@ -30248,7 +30256,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="4">
         <v>67129</v>
@@ -30275,10 +30283,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4">
         <v>589734</v>
@@ -30354,7 +30362,7 @@
     <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C24" s="4">
         <v>206197</v>
@@ -30382,7 +30390,7 @@
     <row r="25" spans="1:10">
       <c r="A25" s="2"/>
       <c r="B25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" s="4">
         <v>795931</v>
@@ -30409,10 +30417,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" s="4">
         <v>85856</v>
@@ -30488,7 +30496,7 @@
     <row r="32" spans="1:10">
       <c r="A32" s="2"/>
       <c r="B32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C32" s="4">
         <v>75488</v>
@@ -30516,7 +30524,7 @@
     <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4">
         <v>161344</v>
@@ -30543,10 +30551,10 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4">
         <v>19273</v>
@@ -30622,7 +30630,7 @@
     <row r="40" spans="1:10">
       <c r="A40" s="2"/>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C40" s="4">
         <v>58440</v>
@@ -30650,7 +30658,7 @@
     <row r="41" spans="1:10">
       <c r="A41" s="2"/>
       <c r="B41" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" s="4">
         <v>77713</v>
@@ -30677,10 +30685,10 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="4">
         <v>11257</v>
@@ -30756,7 +30764,7 @@
     <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="B48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C48" s="4">
         <v>11019</v>
@@ -30784,7 +30792,7 @@
     <row r="49" spans="1:10">
       <c r="A49" s="2"/>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="4">
         <v>22276</v>
@@ -30811,10 +30819,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4">
         <v>1569</v>
@@ -30890,7 +30898,7 @@
     <row r="56" spans="1:10">
       <c r="A56" s="2"/>
       <c r="B56" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C56" s="4">
         <v>2827</v>
@@ -30918,7 +30926,7 @@
     <row r="57" spans="1:10">
       <c r="A57" s="2"/>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C57" s="4">
         <v>4396</v>
@@ -30945,10 +30953,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="4">
         <v>390</v>
@@ -31024,7 +31032,7 @@
     <row r="64" spans="1:10">
       <c r="A64" s="2"/>
       <c r="B64" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C64" s="4">
         <v>974</v>
@@ -31052,7 +31060,7 @@
     <row r="65" spans="1:10">
       <c r="A65" s="2"/>
       <c r="B65" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C65" s="4">
         <v>1364</v>
@@ -31079,10 +31087,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="4">
         <v>942764</v>
@@ -31158,7 +31166,7 @@
     <row r="72" spans="1:10">
       <c r="A72" s="2"/>
       <c r="B72" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C72" s="4">
         <v>519385</v>
@@ -31186,7 +31194,7 @@
     <row r="73" spans="1:10">
       <c r="A73" s="2"/>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4">
         <v>1462149</v>
@@ -31213,10 +31221,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" s="4">
         <v>258818</v>
@@ -31292,7 +31300,7 @@
     <row r="80" spans="1:10">
       <c r="A80" s="2"/>
       <c r="B80" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C80" s="4">
         <v>100383</v>
@@ -31320,7 +31328,7 @@
     <row r="81" spans="1:10">
       <c r="A81" s="2"/>
       <c r="B81" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C81" s="4">
         <v>359201</v>
@@ -31347,10 +31355,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" s="4">
         <v>445487</v>
@@ -31426,7 +31434,7 @@
     <row r="88" spans="1:10">
       <c r="A88" s="2"/>
       <c r="B88" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="4">
         <v>150552</v>
@@ -31454,7 +31462,7 @@
     <row r="89" spans="1:10">
       <c r="A89" s="2"/>
       <c r="B89" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="4">
         <v>596039</v>
@@ -31481,10 +31489,10 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" s="4">
         <v>1033120</v>
@@ -31560,7 +31568,7 @@
     <row r="96" spans="1:10">
       <c r="A96" s="2"/>
       <c r="B96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="4">
         <v>310097</v>
@@ -31588,7 +31596,7 @@
     <row r="97" spans="1:10">
       <c r="A97" s="2"/>
       <c r="B97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" s="4">
         <v>1343217</v>
@@ -31615,10 +31623,10 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="4">
         <v>23653</v>
@@ -31674,7 +31682,7 @@
     <row r="104" spans="1:10">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
@@ -31698,7 +31706,7 @@
     <row r="105" spans="1:10">
       <c r="A105" s="2"/>
       <c r="B105" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="4">
         <v>23653</v>
@@ -31725,10 +31733,10 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C106" s="4">
         <v>1502260</v>
@@ -31804,7 +31812,7 @@
     <row r="112" spans="1:10">
       <c r="A112" s="2"/>
       <c r="B112" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C112" s="4">
         <v>460649</v>
@@ -31832,7 +31840,7 @@
     <row r="113" spans="1:10">
       <c r="A113" s="2"/>
       <c r="B113" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="4">
         <v>1962909</v>
@@ -31859,10 +31867,10 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C114" s="4">
         <v>379001</v>
@@ -31938,7 +31946,7 @@
     <row r="120" spans="1:10">
       <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C120" s="4">
         <v>125819</v>
@@ -31966,7 +31974,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="2"/>
       <c r="B121" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C121" s="4">
         <v>504820</v>
@@ -31993,10 +32001,10 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C122" s="4">
         <v>104091</v>
@@ -32072,7 +32080,7 @@
     <row r="128" spans="1:10">
       <c r="A128" s="2"/>
       <c r="B128" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C128" s="4">
         <v>70167</v>
@@ -32100,7 +32108,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="2"/>
       <c r="B129" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C129" s="4">
         <v>174258</v>
@@ -32127,10 +32135,10 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C130" s="4">
         <v>2244170</v>
@@ -32206,7 +32214,7 @@
     <row r="136" spans="1:10">
       <c r="A136" s="2"/>
       <c r="B136" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C136" s="4">
         <v>757018</v>
@@ -32234,7 +32242,7 @@
     <row r="137" spans="1:10">
       <c r="A137" s="2"/>
       <c r="B137" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C137" s="4">
         <v>3001188</v>
@@ -32261,10 +32269,10 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C138" s="4">
         <v>3186934</v>
@@ -32340,7 +32348,7 @@
     <row r="144" spans="1:10">
       <c r="A144" s="2"/>
       <c r="B144" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C144" s="9">
         <v>1276403</v>
@@ -32368,7 +32376,7 @@
     <row r="145" spans="1:10">
       <c r="A145" s="2"/>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C145" s="9">
         <v>4463337</v>
@@ -32395,10 +32403,10 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C146" s="4">
         <v>13279</v>
@@ -32474,7 +32482,7 @@
     <row r="152" spans="1:10">
       <c r="A152" s="2"/>
       <c r="B152" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C152" s="4">
         <v>14811</v>
@@ -32502,7 +32510,7 @@
     <row r="153" spans="1:10">
       <c r="A153" s="2"/>
       <c r="B153" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C153" s="4">
         <v>28090</v>
@@ -32529,10 +32537,10 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C154" s="4">
         <v>96770</v>
@@ -32608,7 +32616,7 @@
     <row r="160" spans="1:10">
       <c r="A160" s="2"/>
       <c r="B160" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C160" s="4">
         <v>67633</v>
@@ -32636,7 +32644,7 @@
     <row r="161" spans="1:10">
       <c r="A161" s="2"/>
       <c r="B161" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C161" s="4">
         <v>164403</v>
@@ -32663,10 +32671,10 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C162" s="4">
         <v>185104</v>
@@ -32742,7 +32750,7 @@
     <row r="168" spans="1:10">
       <c r="A168" s="2"/>
       <c r="B168" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C168" s="4">
         <v>66921</v>
@@ -32770,7 +32778,7 @@
     <row r="169" spans="1:10">
       <c r="A169" s="2"/>
       <c r="B169" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C169" s="4">
         <v>252025</v>
@@ -32797,10 +32805,10 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C170" s="4">
         <v>129</v>
@@ -32864,7 +32872,7 @@
     <row r="176" spans="1:10">
       <c r="A176" s="2"/>
       <c r="B176" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C176" s="4">
         <v>9</v>
@@ -32892,7 +32900,7 @@
     <row r="177" spans="1:10">
       <c r="A177" s="2"/>
       <c r="B177" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C177" s="4">
         <v>138</v>
@@ -32919,10 +32927,10 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178" s="4">
         <v>295282</v>
@@ -32998,7 +33006,7 @@
     <row r="184" spans="1:10">
       <c r="A184" s="2"/>
       <c r="B184" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C184" s="4">
         <v>149374</v>
@@ -33026,7 +33034,7 @@
     <row r="185" spans="1:10">
       <c r="A185" s="2"/>
       <c r="B185" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C185" s="4">
         <v>444656</v>
@@ -33053,10 +33061,10 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186" s="4">
         <v>3482216</v>
@@ -33132,7 +33140,7 @@
     <row r="192" spans="1:10">
       <c r="A192" s="2"/>
       <c r="B192" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C192" s="4">
         <v>1425777</v>
@@ -33160,7 +33168,7 @@
     <row r="193" spans="1:10">
       <c r="A193" s="2"/>
       <c r="B193" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C193" s="4">
         <v>4907993</v>
@@ -33187,10 +33195,10 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C194" s="4">
         <v>86428</v>
@@ -33266,7 +33274,7 @@
     <row r="200" spans="1:10">
       <c r="A200" s="2"/>
       <c r="B200" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C200" s="4">
         <v>25927</v>
@@ -33294,7 +33302,7 @@
     <row r="201" spans="1:10">
       <c r="A201" s="2"/>
       <c r="B201" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C201" s="4">
         <v>112355</v>
@@ -33321,10 +33329,10 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C202" s="4">
         <v>29951</v>
@@ -33400,7 +33408,7 @@
     <row r="208" spans="1:10">
       <c r="A208" s="2"/>
       <c r="B208" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C208" s="4">
         <v>19577</v>
@@ -33428,7 +33436,7 @@
     <row r="209" spans="1:10">
       <c r="A209" s="2"/>
       <c r="B209" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C209" s="4">
         <v>49528</v>
@@ -33455,10 +33463,10 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C210" s="4">
         <v>12699</v>
@@ -33532,7 +33540,7 @@
     <row r="216" spans="1:10">
       <c r="A216" s="2"/>
       <c r="B216" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C216" s="4">
         <v>36306</v>
@@ -33560,7 +33568,7 @@
     <row r="217" spans="1:10">
       <c r="A217" s="2"/>
       <c r="B217" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C217" s="4">
         <v>49005</v>
@@ -33587,10 +33595,10 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C218" s="4">
         <v>8256</v>
@@ -33666,7 +33674,7 @@
     <row r="224" spans="1:10">
       <c r="A224" s="2"/>
       <c r="B224" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C224" s="4">
         <v>1078</v>
@@ -33694,7 +33702,7 @@
     <row r="225" spans="1:10">
       <c r="A225" s="2"/>
       <c r="B225" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C225" s="4">
         <v>9334</v>
@@ -33721,10 +33729,10 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C226" s="4">
         <v>137334</v>
@@ -33800,7 +33808,7 @@
     <row r="232" spans="1:10">
       <c r="A232" s="2"/>
       <c r="B232" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C232" s="4">
         <v>82888</v>
@@ -33828,7 +33836,7 @@
     <row r="233" spans="1:10">
       <c r="A233" s="2"/>
       <c r="B233" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C233" s="4">
         <v>220222</v>
@@ -33855,10 +33863,10 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C234" s="4"/>
       <c r="D234" s="4">
@@ -33922,7 +33930,7 @@
     <row r="240" spans="1:10">
       <c r="A240" s="2"/>
       <c r="B240" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="4">
@@ -33948,7 +33956,7 @@
     <row r="241" spans="1:10">
       <c r="A241" s="2"/>
       <c r="B241" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="4">
@@ -33973,10 +33981,10 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C242" s="4">
         <v>9848</v>
@@ -34052,7 +34060,7 @@
     <row r="248" spans="1:10">
       <c r="A248" s="2"/>
       <c r="B248" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C248" s="4">
         <v>3593</v>
@@ -34080,7 +34088,7 @@
     <row r="249" spans="1:10">
       <c r="A249" s="2"/>
       <c r="B249" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C249" s="4">
         <v>13441</v>
@@ -34107,10 +34115,10 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C250" s="4">
         <v>3629398</v>
@@ -34180,7 +34188,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="B256" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C256" s="4">
         <v>1512258</v>
@@ -34207,7 +34215,7 @@
     </row>
     <row r="257" spans="2:10">
       <c r="B257" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C257" s="4">
         <v>5141656</v>
